--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_808.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_808.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33268-d78448-Reviews-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Travelodge-By-Wyndham-Whittier.h27276.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_808.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_808.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1764 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r566304226-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>33268</t>
+  </si>
+  <si>
+    <t>78448</t>
+  </si>
+  <si>
+    <t>566304226</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r557463658-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>557463658</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r556897631-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>556897631</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Worst travel lodge I’ve ever stayed at.</t>
+  </si>
+  <si>
+    <t>Night manager was very rude and shady looking. Upon entering the room we were hit with a terrible smell. The floors were visibly stained with a dried up white liquid, the hot tub and sink area was dirty. On top of all this the TV did not work and the lights turned on by themselves through out the night waking me and my partner up multiple times.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r545845022-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>545845022</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r543875331-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>543875331</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r541044455-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>541044455</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Showed up to check in service was rude. Stairs were section off with caution tape as if a crime had happen hours before ac didn’t work well strange odor from the vents will never stay at this place again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r509058226-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>509058226</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r506015142-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>506015142</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Horrible and disgusting!!! Mold all over bathtub and blood stains on the shower curtain. Clumps of hair stuck everywhere</t>
+  </si>
+  <si>
+    <t>This was the most disgusting insantinary place in Whittier California. All rooms sold out everywhere and stuck with this room! Had to sleep in car it was so gross and would not give refund!! Don't ever stay here!! it had inches of dust and hair on bed and floor! Don't think it has been cleaned for months!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r497794291-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>497794291</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Plumbing needs repair....</t>
+  </si>
+  <si>
+    <t>The shower diverted did not work, water barely trickled from the shower head, while most poured into tub, and the tub drained so slowly, that it was almost full.The tv is an old old tube type where the image looks ghosted and fuzzy.Breakfast is definently below par for wyndam rewards.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r491537010-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>491537010</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r491531819-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>491531819</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Front Desk Clerk is a little rude and they come around and knock on your door to make you leave before check out time which is 11. Other than that it's a nice hotel, rooms are clean, it was a good price and I was able to use my fast point to get a goo rate on the jacuzzi room.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r484976728-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>484976728</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r478877673-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>478877673</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r475155084-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>475155084</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Overall, it was good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a last minute booking. Can't complain. Missed breakfast but that was my fault, over slept. Bed was comfortable and TV had. Ice selection of channels. Also room was clean. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r474136105-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>474136105</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Decent hotel, decent price</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located on Whittier Blvd so is easy to access as you drive into town from the freeway.  It is quite clean but basic.  There is a refrigerator, microwave and coffee maker along with a flat screen tv with a plethora of channels.  The breakfast is a standard free breakfast of cereal, donuts, toast and fruit along with coffee, tea and juice.  For the price, I felt it was a decent value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r471288157-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>471288157</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r470736231-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>470736231</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Be ready to search for parking!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking is very limited. Overall, our stay was decent, but I'd probably stay somewhere else next time I'm in town. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r468841392-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>468841392</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Carpet was filthy that left our socks black, maid did not clean first day, then Ac went out for two days, when moved to new room the "owner" complained about night clerk, said" he thinks he is still in India and thinks he can do whatever the hell he wants". The night clerk was a great help with our issues, we left during the day to return to issues for 4 nights. The maid service is horrible. Blood splatters on wall in the rr, a baby's top left in new room. The day Manger stated the owner is having an affair with maid and that the maid is causing issues, owner stated night clerk was taking money, it was the worst stay ever. MoreShow less</t>
+  </si>
+  <si>
+    <t>Carpet was filthy that left our socks black, maid did not clean first day, then Ac went out for two days, when moved to new room the "owner" complained about night clerk, said" he thinks he is still in India and thinks he can do whatever the hell he wants". The night clerk was a great help with our issues, we left during the day to return to issues for 4 nights. The maid service is horrible. Blood splatters on wall in the rr, a baby's top left in new room. The day Manger stated the owner is having an affair with maid and that the maid is causing issues, owner stated night clerk was taking money, it was the worst stay ever. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r463924780-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>463924780</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Stayed Three nights, rooms were clean, but on the second day the beds were not made. I requested a first floor due to an elderly person in my party, but they didn't accommodate me,it was very hard for her to go up and down the stairs.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r450285378-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>450285378</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Bad plumbing, family unfriendly lodging, no night light!!</t>
+  </si>
+  <si>
+    <t>I stayed there with my 3 year old daughter in room 224. The washroom lock was accidentally turned on by my daughter. Luckily she was outside. The lock was weird and had a tiny hole in front. I asked the reception how to open that and the guy told there is no key to open that. I told him to unscrew the lock as I don't need the lock. He unscrewed the lock and told me that they will change the lock tomorrow. The manager (I presume strongly) came the next morning and treated me like I came with a bag from a village from southeast asia and and landed in LA for the 1st time. He told me, "This is american way! All the locks are like this. You should teach your daughter to unlock the door. (Again) This is american way!" He looked like a cunning manipulator. The handyman gave me a special key which goes through the tiny hole of the lock and showed me how to open that. I was thinking what would have happened if my daughter locked herself inside that night!! The reception didn't even had the key to unlock the washroom door.
+Moreover, all the lights were automatic with motion detection sensors. All of them turned off after a few minutes ... very awkward! I had to keep the TV on with a unprogrammed channel and used it as a night light :)...I stayed there with my 3 year old daughter in room 224. The washroom lock was accidentally turned on by my daughter. Luckily she was outside. The lock was weird and had a tiny hole in front. I asked the reception how to open that and the guy told there is no key to open that. I told him to unscrew the lock as I don't need the lock. He unscrewed the lock and told me that they will change the lock tomorrow. The manager (I presume strongly) came the next morning and treated me like I came with a bag from a village from southeast asia and and landed in LA for the 1st time. He told me, "This is american way! All the locks are like this. You should teach your daughter to unlock the door. (Again) This is american way!" He looked like a cunning manipulator. The handyman gave me a special key which goes through the tiny hole of the lock and showed me how to open that. I was thinking what would have happened if my daughter locked herself inside that night!! The reception didn't even had the key to unlock the washroom door.Moreover, all the lights were automatic with motion detection sensors. All of them turned off after a few minutes ... very awkward! I had to keep the TV on with a unprogrammed channel and used it as a night light :) because of my daughter and wife who do not like peach black darkness in the room.The plumbing and sewerage system needs total replacement. The washrooms smells bad because of gas leaking from the toilet bowl or basin/bathtub. The shower was like a zigzag maze of cold and hot water. Few second cold water and few seconds very hot water comes which makes it very difficult to take shower.I had to stay there for few nights very unwillingly because I had a lot of luggage and I didn't want to waste time and energy moving to a new hotel.As a whole, It was a horrible experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I stayed there with my 3 year old daughter in room 224. The washroom lock was accidentally turned on by my daughter. Luckily she was outside. The lock was weird and had a tiny hole in front. I asked the reception how to open that and the guy told there is no key to open that. I told him to unscrew the lock as I don't need the lock. He unscrewed the lock and told me that they will change the lock tomorrow. The manager (I presume strongly) came the next morning and treated me like I came with a bag from a village from southeast asia and and landed in LA for the 1st time. He told me, "This is american way! All the locks are like this. You should teach your daughter to unlock the door. (Again) This is american way!" He looked like a cunning manipulator. The handyman gave me a special key which goes through the tiny hole of the lock and showed me how to open that. I was thinking what would have happened if my daughter locked herself inside that night!! The reception didn't even had the key to unlock the washroom door.
+Moreover, all the lights were automatic with motion detection sensors. All of them turned off after a few minutes ... very awkward! I had to keep the TV on with a unprogrammed channel and used it as a night light :)...I stayed there with my 3 year old daughter in room 224. The washroom lock was accidentally turned on by my daughter. Luckily she was outside. The lock was weird and had a tiny hole in front. I asked the reception how to open that and the guy told there is no key to open that. I told him to unscrew the lock as I don't need the lock. He unscrewed the lock and told me that they will change the lock tomorrow. The manager (I presume strongly) came the next morning and treated me like I came with a bag from a village from southeast asia and and landed in LA for the 1st time. He told me, "This is american way! All the locks are like this. You should teach your daughter to unlock the door. (Again) This is american way!" He looked like a cunning manipulator. The handyman gave me a special key which goes through the tiny hole of the lock and showed me how to open that. I was thinking what would have happened if my daughter locked herself inside that night!! The reception didn't even had the key to unlock the washroom door.Moreover, all the lights were automatic with motion detection sensors. All of them turned off after a few minutes ... very awkward! I had to keep the TV on with a unprogrammed channel and used it as a night light :) because of my daughter and wife who do not like peach black darkness in the room.The plumbing and sewerage system needs total replacement. The washrooms smells bad because of gas leaking from the toilet bowl or basin/bathtub. The shower was like a zigzag maze of cold and hot water. Few second cold water and few seconds very hot water comes which makes it very difficult to take shower.I had to stay there for few nights very unwillingly because I had a lot of luggage and I didn't want to waste time and energy moving to a new hotel.As a whole, It was a horrible experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r444861645-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>444861645</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Worst stay ever!</t>
+  </si>
+  <si>
+    <t>I was working in Whittier, CA for three days and wanted to find a quiet place to stay so I could relax on my down time. I found an alright deal hotels.com which was a better deal than what I could find on the Wyndham site. I noticed that the room was not as clean as it should of been and the restroom shower head was broken so taking a shower was difficult cause the water sprayed everywhere and it was dangerous to get out of the tub. I also noticed that not all of the lights worked. The fridge also had a really bad smell. What really made the stay the worst was the rude staff and manager. I overslept and he yelled for me to get out very loudly. I jumped out of bed and tried to pack my bags as quick as I could. I then left the room and went to apologize to the manager. He did not even stop to let me talk and just walked past me and asked if the room was empty. I said yes. Never going to stay at this Travelodge ever again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I was working in Whittier, CA for three days and wanted to find a quiet place to stay so I could relax on my down time. I found an alright deal hotels.com which was a better deal than what I could find on the Wyndham site. I noticed that the room was not as clean as it should of been and the restroom shower head was broken so taking a shower was difficult cause the water sprayed everywhere and it was dangerous to get out of the tub. I also noticed that not all of the lights worked. The fridge also had a really bad smell. What really made the stay the worst was the rude staff and manager. I overslept and he yelled for me to get out very loudly. I jumped out of bed and tried to pack my bags as quick as I could. I then left the room and went to apologize to the manager. He did not even stop to let me talk and just walked past me and asked if the room was empty. I said yes. Never going to stay at this Travelodge ever again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r441580200-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>441580200</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Thanksgiving stay</t>
+  </si>
+  <si>
+    <t>The room was nice. Location of hotel is not what I would normally select. Comfortable beds. Dark black curtains. Clean. Water pressure in shower is less than desirable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r441446140-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>441446140</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean place, bad location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place else was very clean and nicely updated.  I was worried about street noise but slept very well.   I was a bit surprised because the price was low.  The surrounding area is questionable.  I wouldn't stay here without my hubby.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r441103048-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>441103048</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean and close enough for everything we wanted to do. The breakfast wasn't great and was always late. You are not allowed to take food to your room </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r431633691-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>431633691</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs a lot of work </t>
+  </si>
+  <si>
+    <t>Website was running a special for 90/night. At $200 for two nights, definitely was not worth it. Pulled in Friday night about 11 there was a door open to one of the rooms playing very loud music. It was not far from the office no less. I went up to the night window and waited a couple of minutes for the clerk to finish his conversation with whom ever he was training. Not so much as a hello or welcome??? I had to ask where my room was and for wifi password. Very, very unfriendly and unhelpful staff. There was also a young woman going back and forth behind the hotel, didn't bother asking what that was about. The room itself was good. Seemed clean and well kept. Thought it was just me, but others also stated that the shower changes temperature hot to cold. Parking is very tight. Checked out, again with the most unfriendliest clerk in the world. Would definitely not stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Website was running a special for 90/night. At $200 for two nights, definitely was not worth it. Pulled in Friday night about 11 there was a door open to one of the rooms playing very loud music. It was not far from the office no less. I went up to the night window and waited a couple of minutes for the clerk to finish his conversation with whom ever he was training. Not so much as a hello or welcome??? I had to ask where my room was and for wifi password. Very, very unfriendly and unhelpful staff. There was also a young woman going back and forth behind the hotel, didn't bother asking what that was about. The room itself was good. Seemed clean and well kept. Thought it was just me, but others also stated that the shower changes temperature hot to cold. Parking is very tight. Checked out, again with the most unfriendliest clerk in the world. Would definitely not stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r431322098-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>431322098</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>What a Dump!</t>
+  </si>
+  <si>
+    <t>Checked into room, but computerized room key would not lock our door. Repacked and changed rooms. Unpacked, then found out the toilet seat was not bolted down at all. Back to front desk. Offered us another room, but we had no time to move again as we were going to a wedding. My husband asked them to fix the seat. They told us the maids had left for the day, but would take a look at it. My husband told them to take the bolts from the other room that had the bad lock. We had to ask for more towels and  a pillow, as there were three of us staying in the room. They were out of pillows. The sink was missing a stopper as well. When we retuned from the wedding, no one had been to our room. My husband went to the office again. Ten minutes later, two young men came up to fix the toilet, said they would return shortly, but never did. I don't know how or why this place stays in business. We got out as fast as we could the next morning. Place is falling apart at the seams, and no one seems to care.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked into room, but computerized room key would not lock our door. Repacked and changed rooms. Unpacked, then found out the toilet seat was not bolted down at all. Back to front desk. Offered us another room, but we had no time to move again as we were going to a wedding. My husband asked them to fix the seat. They told us the maids had left for the day, but would take a look at it. My husband told them to take the bolts from the other room that had the bad lock. We had to ask for more towels and  a pillow, as there were three of us staying in the room. They were out of pillows. The sink was missing a stopper as well. When we retuned from the wedding, no one had been to our room. My husband went to the office again. Ten minutes later, two young men came up to fix the toilet, said they would return shortly, but never did. I don't know how or why this place stays in business. We got out as fast as we could the next morning. Place is falling apart at the seams, and no one seems to care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r423145598-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>423145598</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r415299571-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>415299571</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Nightmare in Whittier</t>
+  </si>
+  <si>
+    <t>I can't stress enough how terrible an experience we had in a brief stay at Travelodge Whittier. We checked in after a night at the Hollywood Bowl, and felt a bit off as soon as we saw the property. The parking lot is in poor repair, and the exterior of the building looked faded and rust-run. We didn't feel very welcomed from the start, since the lobby was locked down, and the only way to check in was through a bank-style security window. The night clerk seemed bothered to get up from laying down on the lobby couch to check us in, but eventually we were checked in and put our uneasiness aside in hopes of being able to grab some shuteye. No such luck. Even though we had booked a non-smoking room, we were assaulted by a waft of smells when we opened the door to our room, which can only be described as a mixture of old cigarette smoke and musty blankets. The bed was hard and the carpet was stained, but the straw that broke the camel's back was the bathroom. The toilet hadn't been cleaned, and there was water on the tile floor (I slipped on this, but luckily was still holding on to the door.)
+We went to the front desk and asked to cancel our reservation. The night clerk told me for 3 or 4 minutes that it was impossible, and that his boss...I can't stress enough how terrible an experience we had in a brief stay at Travelodge Whittier. We checked in after a night at the Hollywood Bowl, and felt a bit off as soon as we saw the property. The parking lot is in poor repair, and the exterior of the building looked faded and rust-run. We didn't feel very welcomed from the start, since the lobby was locked down, and the only way to check in was through a bank-style security window. The night clerk seemed bothered to get up from laying down on the lobby couch to check us in, but eventually we were checked in and put our uneasiness aside in hopes of being able to grab some shuteye. No such luck. Even though we had booked a non-smoking room, we were assaulted by a waft of smells when we opened the door to our room, which can only be described as a mixture of old cigarette smoke and musty blankets. The bed was hard and the carpet was stained, but the straw that broke the camel's back was the bathroom. The toilet hadn't been cleaned, and there was water on the tile floor (I slipped on this, but luckily was still holding on to the door.)We went to the front desk and asked to cancel our reservation. The night clerk told me for 3 or 4 minutes that it was impossible, and that his boss wouldn't be happy about this. He offered to have us change rooms, but we were done with this place. He finally agreed to cancel our reservation and refund our money (which we have not received back yet). Luckily our next hotel was able to accommodate us for another night, and all was well. I wouldn't recommend this place to my worst enemy, and would rather sleep in my car!MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't stress enough how terrible an experience we had in a brief stay at Travelodge Whittier. We checked in after a night at the Hollywood Bowl, and felt a bit off as soon as we saw the property. The parking lot is in poor repair, and the exterior of the building looked faded and rust-run. We didn't feel very welcomed from the start, since the lobby was locked down, and the only way to check in was through a bank-style security window. The night clerk seemed bothered to get up from laying down on the lobby couch to check us in, but eventually we were checked in and put our uneasiness aside in hopes of being able to grab some shuteye. No such luck. Even though we had booked a non-smoking room, we were assaulted by a waft of smells when we opened the door to our room, which can only be described as a mixture of old cigarette smoke and musty blankets. The bed was hard and the carpet was stained, but the straw that broke the camel's back was the bathroom. The toilet hadn't been cleaned, and there was water on the tile floor (I slipped on this, but luckily was still holding on to the door.)
+We went to the front desk and asked to cancel our reservation. The night clerk told me for 3 or 4 minutes that it was impossible, and that his boss...I can't stress enough how terrible an experience we had in a brief stay at Travelodge Whittier. We checked in after a night at the Hollywood Bowl, and felt a bit off as soon as we saw the property. The parking lot is in poor repair, and the exterior of the building looked faded and rust-run. We didn't feel very welcomed from the start, since the lobby was locked down, and the only way to check in was through a bank-style security window. The night clerk seemed bothered to get up from laying down on the lobby couch to check us in, but eventually we were checked in and put our uneasiness aside in hopes of being able to grab some shuteye. No such luck. Even though we had booked a non-smoking room, we were assaulted by a waft of smells when we opened the door to our room, which can only be described as a mixture of old cigarette smoke and musty blankets. The bed was hard and the carpet was stained, but the straw that broke the camel's back was the bathroom. The toilet hadn't been cleaned, and there was water on the tile floor (I slipped on this, but luckily was still holding on to the door.)We went to the front desk and asked to cancel our reservation. The night clerk told me for 3 or 4 minutes that it was impossible, and that his boss wouldn't be happy about this. He offered to have us change rooms, but we were done with this place. He finally agreed to cancel our reservation and refund our money (which we have not received back yet). Luckily our next hotel was able to accommodate us for another night, and all was well. I wouldn't recommend this place to my worst enemy, and would rather sleep in my car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r410797301-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>410797301</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>It's an old hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its an old hotel and you can tell. The staff was nice, but they were remodeling and everything was dirty. Not enough parking. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r407254501-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>407254501</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r403202454-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>403202454</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>I made a spontaneous trip to California and found this hotel last minute. The surrounding area looks run down and a little ghetto, but you are right down the street from the freeway. The room was clean and recently renovated. The hotel is under construction, but since I was there on the weekend, they weren't working. Front Desk  was very nice and made great small talk. I could hear noise from the road during the night, but I still fell asleep rather quickly. If I'm in a bind and cannot find a hotel near the area I usually go to, I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r402449556-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>402449556</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r395634916-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>395634916</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r393345598-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>393345598</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelodge needs more cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed there for only 3 days. My first day walking in, it smelled like if someone smoked I had opened the window &amp; door, didn't work. The bad odor didnt go away. Carpet needs a deep clean. Couch is really dirty &amp; stained. Headboard above bed is very dusty. Dresser below t.v. is broken couldn't use it. --And for the hotel cleaners, for the first 2 nights 2 ladies had cleaned our hotel really good, our last night a lady didn't clean so good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r392597153-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>392597153</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Good location..very bad breakfast</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights. Location is good. If you're looking for a hotel with breakfast this is not the right one. Breakfast is served from 6-9 am. I only went the first morning and it was a waste of time. Coffee was terrible. Breakfast is the worse I've ever seen in a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r391772460-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>391772460</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r388153322-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>388153322</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>The staff was courteous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although My stay was short, the staff was courteous. Not a huge selection for breakfast, but filling and I am very thankful that they had it. I do recommend this hotel and I thank them for accommodating me even though their computers were down. I was in town for my mothers funeral. The location was a perfect distance from the mortuary in Los Angeles, cemetery and my (living) family members. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r384723543-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>384723543</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Nice room but hotel staff is a different story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I booked two nights for my mother. She loved the room. I booked 1st night go free which was honored. The 2nd night was not honored. He was to lazy to look for the second booking which Wyndham books separately I don't know why. Well instead of her paying $40 with go fast points, she was charged full price. I called and they seen the reservation but canceled it instead of honoring it. All I got was apologies instead of making it right. This has happened twice with this property. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r382313647-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>382313647</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r379264675-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>379264675</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r374348027-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>374348027</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Paid $95/night for a $60 Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The water never held a constant temp, going from blazing hot to ice cold. Found some food wrappers on the floor when we first got in. Towels were like sandpaper. Only giving 2 stars because the staff was nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r372082818-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>372082818</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r368183984-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>368183984</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Dirty, Dirty, Dirty</t>
+  </si>
+  <si>
+    <t>I figured I would give it a chance, as soon as we get there our door wpukd not open. So we had to go to the office everytime we left and came back. Then our jacuzzi was not clean and the water smelled bad. The shower is not cleaned properly and people are smoking left and right. Good location that is about it. Get your act together and clean up properly I paid 130 a night for garbage.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r366626426-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>366626426</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r364018242-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>364018242</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r360396875-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>360396875</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel , perfect location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelodge Whittier was for us a perfect hotel. The staff was friendly and the service perfect. We stayed three days in the comfortable room. The room is complete with fridge, coffee machine, etc. The breakfast was basic but good. The location is also perfect, close to the Highway, and indeed 30 min from LAX. The beds were o.k. and the street was not to noisy.We are coming back. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r358830632-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>358830632</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>MY time at Travel lodge !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just spent three days with the very nice people at the Whitter location and everything was just great , good parking , nice office mgr, free breakfast, and a clean room with plenty of amenities </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r358426078-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>358426078</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r355445201-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>355445201</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok place to stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for several nights with friends and while the rooms were clean, the whole place looked old and tired and could do with a bit of work. the area was a bit ordinary with barb wire round the car park at the back, so I certainly wouldn't stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r354165568-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>354165568</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Good night.  Nice and Quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was a one night stay.  As I arrived,  the staff was friendly and courteous.   I got an upgrade on my room too with no extra charge!  Breakfast was nice n simple.   The room was great big n spacious...  </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r353681400-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>353681400</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>You get what you pay for. I stayed 3 days and 2 nights. Upon arrival the refrigerator did not work. I informed the front desk and within 15 minutes a New refrigerator was delivered. While the bed, sheets, floor bathroom were clean I did have issues. 1. Carpet was extremely soiled and needs a deep shampooing or replacement. Slippers or socks needed. Bare feet not recommended.2. The bath tub/shower was cleaned however it appeared a prior occupant used the tub to dye clothing. The tub needs a chemical cleaning to remove dye. I was not comfortable using tub or shower. 3. The pillows are small and lumpy. I would have requested a change in room if I was going to stay 1 or more nights so I could shower or purchased flip flops. MoreShow less</t>
+  </si>
+  <si>
+    <t>You get what you pay for. I stayed 3 days and 2 nights. Upon arrival the refrigerator did not work. I informed the front desk and within 15 minutes a New refrigerator was delivered. While the bed, sheets, floor bathroom were clean I did have issues. 1. Carpet was extremely soiled and needs a deep shampooing or replacement. Slippers or socks needed. Bare feet not recommended.2. The bath tub/shower was cleaned however it appeared a prior occupant used the tub to dye clothing. The tub needs a chemical cleaning to remove dye. I was not comfortable using tub or shower. 3. The pillows are small and lumpy. I would have requested a change in room if I was going to stay 1 or more nights so I could shower or purchased flip flops. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r348543089-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>348543089</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r348486296-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>348486296</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r342682467-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>342682467</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r336689955-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>336689955</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>The bed spreads wear dirty and the restroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want my refund back very rude customers service I ask if I can move in a another room but he said I'm sorry there is nothing we can do </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r334055072-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>334055072</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Not a 3 star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel bathrooms where dirty and old! House cleaning didn't scrub the toilet properly and was not a pleasant view for us  to see. Hotel sits on main road and car niece will keep you up . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r331520069-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>331520069</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great location, the staff seem to be family owned and are all courteous and very helpful.  The room was clean and maid service was excellent.  There was a simple continental breakfast of cereal, donuts, coffee, fruit.  Nothing fancy, but nice little spread. Had a problem with the tub draining and they fixed it right away.  We stayed here a week and the only complaint I have is that it is on a busy street and you do hear emergency vehicles.  The location is great as there is a Starbucks within walking distance as well as many stores, etc.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r324954739-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>324954739</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Title my review?</t>
+  </si>
+  <si>
+    <t>nice room.  The florescent lights were harsh though.  No one looks good in a room lit up with them.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r321712030-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>321712030</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r320711659-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>320711659</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Pleasant stay.</t>
+  </si>
+  <si>
+    <t>I was very (pleasantly) surprised considering how much we paid as I was expecting less. Room was very clean, quiet, had all the necessary inclusions to make for a great stay. Wifi was fast. I would definitely recommend this place. Area around room got a little noisy at around 6 as workers left the accommodation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r301694836-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>301694836</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>DO NOT COME HERE</t>
+  </si>
+  <si>
+    <t>DO NOT COME HERE!!!!!!!!!! I booked this room
+Bc I was hosting a charity event nearby. I needed somewhere to get ready prior to the event, I called in the morning of my check in and asked if it was possible to check in before 3, the guy said no. On my way to where my banquet was going to be, I passed the hotel so I decided to stop by to just see if there was by any chance any room available or if I can at least get my room keys since I knew I was gonna be rushing later... biggest mistake ever. The man yelled at me, complained about me and other customers doing this, that it's not the hotels fault I have a charity function to host (lol) I was baffled by his tone, he continued to yell at me and complain about me calling and then showing up to ask. He was loud and aggressive. I asked him to calm down and goes NO DO U WANNA JUST CANCEL, I CAN CANCEL YOUR RESERVATION!! I had no time to figure out my room situation so I said no, just allow me to check in and get my keys, I won't go into the room until after 3... I let him know there was a way to talk and treat ppl, as I run a business as well, he sarcastically says really princess, how would u...DO NOT COME HERE!!!!!!!!!! I booked this roomBc I was hosting a charity event nearby. I needed somewhere to get ready prior to the event, I called in the morning of my check in and asked if it was possible to check in before 3, the guy said no. On my way to where my banquet was going to be, I passed the hotel so I decided to stop by to just see if there was by any chance any room available or if I can at least get my room keys since I knew I was gonna be rushing later... biggest mistake ever. The man yelled at me, complained about me and other customers doing this, that it's not the hotels fault I have a charity function to host (lol) I was baffled by his tone, he continued to yell at me and complain about me calling and then showing up to ask. He was loud and aggressive. I asked him to calm down and goes NO DO U WANNA JUST CANCEL, I CAN CANCEL YOUR RESERVATION!! I had no time to figure out my room situation so I said no, just allow me to check in and get my keys, I won't go into the room until after 3... I let him know there was a way to talk and treat ppl, as I run a business as well, he sarcastically says really princess, how would u like me to speak to you? It took every piece of me to not jump over the counter and punch him in the face. If it wasn't for my charity event I needed to set up for... I would've cancelled my reservation for sure. WORSE SERVICE EVER!!!!!!!!!!!!!!!!!!!!!! Save your $. Stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bhavesh P, Owner at Travelodge by Wyndham Whittier, responded to this reviewResponded August 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2015</t>
+  </si>
+  <si>
+    <t>DO NOT COME HERE!!!!!!!!!! I booked this room
+Bc I was hosting a charity event nearby. I needed somewhere to get ready prior to the event, I called in the morning of my check in and asked if it was possible to check in before 3, the guy said no. On my way to where my banquet was going to be, I passed the hotel so I decided to stop by to just see if there was by any chance any room available or if I can at least get my room keys since I knew I was gonna be rushing later... biggest mistake ever. The man yelled at me, complained about me and other customers doing this, that it's not the hotels fault I have a charity function to host (lol) I was baffled by his tone, he continued to yell at me and complain about me calling and then showing up to ask. He was loud and aggressive. I asked him to calm down and goes NO DO U WANNA JUST CANCEL, I CAN CANCEL YOUR RESERVATION!! I had no time to figure out my room situation so I said no, just allow me to check in and get my keys, I won't go into the room until after 3... I let him know there was a way to talk and treat ppl, as I run a business as well, he sarcastically says really princess, how would u...DO NOT COME HERE!!!!!!!!!! I booked this roomBc I was hosting a charity event nearby. I needed somewhere to get ready prior to the event, I called in the morning of my check in and asked if it was possible to check in before 3, the guy said no. On my way to where my banquet was going to be, I passed the hotel so I decided to stop by to just see if there was by any chance any room available or if I can at least get my room keys since I knew I was gonna be rushing later... biggest mistake ever. The man yelled at me, complained about me and other customers doing this, that it's not the hotels fault I have a charity function to host (lol) I was baffled by his tone, he continued to yell at me and complain about me calling and then showing up to ask. He was loud and aggressive. I asked him to calm down and goes NO DO U WANNA JUST CANCEL, I CAN CANCEL YOUR RESERVATION!! I had no time to figure out my room situation so I said no, just allow me to check in and get my keys, I won't go into the room until after 3... I let him know there was a way to talk and treat ppl, as I run a business as well, he sarcastically says really princess, how would u like me to speak to you? It took every piece of me to not jump over the counter and punch him in the face. If it wasn't for my charity event I needed to set up for... I would've cancelled my reservation for sure. WORSE SERVICE EVER!!!!!!!!!!!!!!!!!!!!!! Save your $. Stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r300949446-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>300949446</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Worst place I have ever stayed at.</t>
+  </si>
+  <si>
+    <t>OK I have to say Whittier is not a well known place to visit, but this place could have at least have tried to be presentable. The building is old and it showed even through the poor paint job they did to cover it up. The colors and choice of decor made it look dirty. The linens were old, worn and cheap and hardly covered the awful pillows. They were stained and flat from over use. Rather then buying better quality pillows I think they washed them which made the stuffing bunch up and still remained very stained. The door did not close properly to catch on the plate on the frame much less the dead bolt fitting it's hole. No security bar just a cheap flimsy chain, I ended up taking my belongings with me on my evening out. The refrigerator never got  cold after I turned it on full. Now worst of all BUGS! There were little dead ones on the bathroom floor but what made me mad and freaked me out was the cock roach next to me when I woke up during the night. I took pictures but my camera did not focus to well on a moving target. The mattress was like sleeping on a bad box spring.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>OK I have to say Whittier is not a well known place to visit, but this place could have at least have tried to be presentable. The building is old and it showed even through the poor paint job they did to cover it up. The colors and choice of decor made it look dirty. The linens were old, worn and cheap and hardly covered the awful pillows. They were stained and flat from over use. Rather then buying better quality pillows I think they washed them which made the stuffing bunch up and still remained very stained. The door did not close properly to catch on the plate on the frame much less the dead bolt fitting it's hole. No security bar just a cheap flimsy chain, I ended up taking my belongings with me on my evening out. The refrigerator never got  cold after I turned it on full. Now worst of all BUGS! There were little dead ones on the bathroom floor but what made me mad and freaked me out was the cock roach next to me when I woke up during the night. I took pictures but my camera did not focus to well on a moving target. The mattress was like sleeping on a bad box spring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r300941163-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>300941163</t>
+  </si>
+  <si>
+    <t>Dirty carpets!</t>
+  </si>
+  <si>
+    <t>Carpets for all three rooms were horribly dirty. Turned our socks black! Front lobby smelled of rancid Indian food. Nauseated. Towels old and shabby. Parking was horrible. Felt very unsafe in the back lot. Front lobby personnel did not answer the buzz when I tried checking in. I had to call to get someone to help me. Would not recommend. You get what you pay for!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r296140641-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>296140641</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r292175456-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>292175456</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r291278958-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>291278958</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Very pleasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call to make reservations if your doing it over the Internet on your phone your reservation is guaranteed. Other then that the hotel was great. The bed was comfortable and the place was clean.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r281944827-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>281944827</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>Had problem at the beginning with our TV but when the younger guy came on he fixed it and was fine.  Noticed when there's no parking signs and when you wake up there's cars parked there and you can't get out.  Overall experience was good.  They where helpful and maid service was great and the hot tub was great!!!!!!  Nice Size room.  Would stay again for the price we got.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r278154221-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>278154221</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Pleasant staff</t>
+  </si>
+  <si>
+    <t>We arrived and checked in the afternoon the AC was not working they changed us to another room.  The bed was very uncomfortable and you could hear the other guest snoring through the shared walls.  I've stayed at other hotels but paying $100 a night I thought it would've been a little better quality wise.  Also the shower was extremely slippery and there was nothing to help with that</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r275406422-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>275406422</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Memorial Day 2015</t>
+  </si>
+  <si>
+    <t>smelled fresh when we entered the room. Staff did a great job cleaning every day and leaving enough towels.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r270255619-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>270255619</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r268912489-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>268912489</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>didnt meet my expectations</t>
+  </si>
+  <si>
+    <t>I wanted to walk away carpet nasty pillows bumpy towels stained breakfast sucked not in my wildest dreams would I expect that from a travelodge or wyndom hotel</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r265555727-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>265555727</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>not what I expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel was clean. counter service was good. fire alarm going off in my room and several others at 1:00 am was NOT appreciated followed 3 minutes later by a fire truck with lights flashing stoping in front of my window. they walked around, looked at a few things, and left. didn't sleep the rest of the night. continental breakfast was 3 kinds of cereal, bread for toast, and apples.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r259433829-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>259433829</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Don't bother...keep looking elsewhere!</t>
+  </si>
+  <si>
+    <t>Filthy carpet...turned my new white socks gray in about 30 min. Nofitted sheet on the bed or comforter...just a sheet &amp; thin blanket.Neighborhood was very dicey &amp; cops patrolled parking lot. Graffitijust about everywhere you look as you're driving down Whittier Blvd.Wi-Fi was a complete joke &amp; remote to tv only 1/2 worked. Wouldnot stay here ever again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r257862773-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>257862773</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Pictures are not pictures of this hotel</t>
+  </si>
+  <si>
+    <t>It's a one star hotel. You pay for a two star price but you get one star. The place looks like it wasn't cleaned, and it's just nasty in there. The bedding is falling apart . I felt unsafe there and the pictures looked very nice on the site, but that is not what you get.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r254601541-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>254601541</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r242862324-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>242862324</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Also a good stay</t>
+  </si>
+  <si>
+    <t>Travelodge is a good value.  Whenever I visit my family, I always frequently stay at the Travelodge closest to my family.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r239149639-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>239149639</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r237624834-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>237624834</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Has no business representing the Travelodge corporation.</t>
+  </si>
+  <si>
+    <t>The bathtub, carpet, and the box spring were filthy.  There was no smoke alarm. We had cockroaches and even though we had a smoking room,  the overwhelming smell was the nasty disenfectant. We booked based on the Travelodge name and we're very disappointed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r231933509-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>231933509</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I would like to express my appreciation for the great room and service I                                             experienced at the Whittier Travelodge (11530 Whittier Blvd).                                                         Everything was great, including the powerful air conditioning unit and                                               shower (both of which I am quite particular about).  The room was rather                                             hot when I arrived, but it cooled down in minutes.                                                                    The gentlemen behind the desk were also very helpful, lending me tape and                                            offering to help with what I was doing.                                                                               Everything was great!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r228709160-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>228709160</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r226669580-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>226669580</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Our stay at the Travelodge in Whittier was amazing! We...</t>
+  </si>
+  <si>
+    <t>Our stay at the Travelodge in Whittier was amazing! We stayed in the hot tub room, it was extremely large, very clean &amp; comftorable. It was quiet too. The price was more than reasonable considering how nice the room was. Our only complaint was the channel selection on the tv. Most of them were in foriegn languages. We can't wait to go back.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r223960281-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>223960281</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r221988939-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>221988939</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>It was an average hotel, no special ammenities, but it did it's job. The front clerk was very nice, and he even helped me with a special request of keeping cool some chocolate covered strawberries! It's nearby the grocery store which was helpful.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r217481013-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>217481013</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Awesome Customer Service!</t>
+  </si>
+  <si>
+    <t>Customer service was great! They let me check out later and gave me some free toiletries that I forgot at home. One of the employees at the desk, Dan, gave me such a good rate, and did whatever he could to make my stay a great one. It was clean, close to my job for the 2 days I was there, and affordable. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r213362203-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>213362203</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Quality and Integrity of Service!</t>
+  </si>
+  <si>
+    <t>My wife and I found the quality of integrity, and character in the staff; meaning: "They are what they say!" That was the personal experience of comfort, and cleanliness we enjoyed for our three day stay; "Which needs to be honored!"</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r211159942-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>211159942</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r211092225-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>211092225</t>
+  </si>
+  <si>
+    <t>Review from the Swedes</t>
+  </si>
+  <si>
+    <t>Very nice hotell and very nice staff!Always helps you with questions or whatever.The rooms have big beds and the ac is working flawless!wish we could move in! haha!We will gladly come back!//The Swedes</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r210455935-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>210455935</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>A Good Nights Sleep</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, and cool - what more could you ask for?!? (plus a free breakfast , a good cup of coffee, and  Dan was a congenial host!)  Will definitely stay there again.    Particularly appreciated the efficient air conditioning and the absolue absence of street noise even though Whittier Blvd. has Heavy traffic.  Parking is a breeze. Pizza Hut and McDonalds are less than a block away, Denny's is about 1 1/2 block and "Jack's" (a famous Whittier family restaruant) is just a short drive East on Whittier Blvd. A very convenient and cost effective trip.. H. Hashemian</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r210351110-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>210351110</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Beware !!!</t>
+  </si>
+  <si>
+    <t>The hotel is ok considering the part of east Los Angeles where its located. I gave my credit card to the night staff when I checked in and the very next day I had a whole lot of unauthorized charges on my card. That is th eonly place I used my card I have not the the card a week prior to staying in that particular hotel. So I feel very  strongly saying that the man that took my credit card that night took my Identity and credit card number and used it or sold it to hackers...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r210078333-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>210078333</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r207177561-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>207177561</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>What made this stay amazing was the teamwork of the staff in assisting me in obtaining the best possible value for my stay. I will definitely stay again! This location is conveniently located between the two cities I do business in. Instead of making reservations online I would call this site directly.Hope this was helpful!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r207122114-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>207122114</t>
+  </si>
+  <si>
+    <t>Just awful</t>
+  </si>
+  <si>
+    <t>I am astounded this property has received a 3- star rating from other guests. The room was very old with spider webs on molding, broken shower rod and bathroom door handle. The wifi signal was so low it was unusable. The parking spaces are tight and people don't even try to stay within the lines. I found my door dinged the next morning! I have stayed at other Travelodges before, but this is the worst!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r206387545-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>206387545</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r201624492-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>201624492</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Friendly service, clean, and reasonably priced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great accommodations on a budget. Friendly and helpful staff. Convient location near shopping center. Especially recommended for business travelers. The staff is knowledgable about local attractions. Well maintained facilities with plenty of parking.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r200747850-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>200747850</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Money well spent</t>
+  </si>
+  <si>
+    <t>A clean comfortable bed, excellent service at an affordable price. When every penny counts, travelodge whittier is where I stay when my job brings me out to the whittier area. I have stay there many many times and the friendly service Kevin and his staff has delivered keeps me coming back. The free wifi allows me to do my work without any interruptions.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r200590493-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>200590493</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Always a great stay.</t>
+  </si>
+  <si>
+    <t>Great service from the management. Rooms are always clean when I stay and the beds are amazing, always a good night's sleep. I don't eat breakfast, but its always nice to get a reminder about their complementary breakfast.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r199829005-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>199829005</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>1st Image Photography</t>
+  </si>
+  <si>
+    <t>We have stayed here three years in a row when in the area for business, this time for three consecutive nights.  The management is very friendly and helpful, especially helping us park our huge van, either by holding a spot for us in the front lot and guiding us safely into the parking spot, or letting us in and out of the locked overflow lot. The room is nicely decorated and suits our needs for work area with good internet access (we are directly above the office).  The refrigerator works well, keeping food cold without freezing. The dressing area is spacious with ample space to hang clothes. Continental breakfast is adequate, not fancy or elaborate, but sufficient.  I have only two complaints with the room we are in this time: a dripping bathtub faucet and a faulty sensor on the light next to the bed, that causes the light to stay on only a few seconds, then goes on and off with every move we make.  Despite these two issues, we are very appreciative of the warm and friendly greeting whenever we see the staff, the courteous and helpful service, and the comfort and decor of the room.  We will be back next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed here three years in a row when in the area for business, this time for three consecutive nights.  The management is very friendly and helpful, especially helping us park our huge van, either by holding a spot for us in the front lot and guiding us safely into the parking spot, or letting us in and out of the locked overflow lot. The room is nicely decorated and suits our needs for work area with good internet access (we are directly above the office).  The refrigerator works well, keeping food cold without freezing. The dressing area is spacious with ample space to hang clothes. Continental breakfast is adequate, not fancy or elaborate, but sufficient.  I have only two complaints with the room we are in this time: a dripping bathtub faucet and a faulty sensor on the light next to the bed, that causes the light to stay on only a few seconds, then goes on and off with every move we make.  Despite these two issues, we are very appreciative of the warm and friendly greeting whenever we see the staff, the courteous and helpful service, and the comfort and decor of the room.  We will be back next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r199573336-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>199573336</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>quick trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people were very friendly and assisted us with our needs.  The room was nice, clean and off the road so we didn't have any road noise.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r198755276-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>198755276</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r198204644-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>198204644</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Well kept room, good service, and I enjoyed my stay at the whittier travel lodge.</t>
+  </si>
+  <si>
+    <t>Due to the nature of my work assignment I decided to stay at this motel intermittently during 2012 and 2013. I was pleasantly surprised with always a clean room to come home to. The staff were always nice and if I ever needed a thing, were always willing to go above and beyond. Modestly priced too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r197893285-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>197893285</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r197159079-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>197159079</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>This is an ideal place to stay in the Los Angeles area.  I work nights throughout the LA area and this place was very quiet in the night and especially during the daytime hours.  The bed was fabulous and the room service was very accommodating giving my irregular schedule.  The room had a love seat couch that was such a nice change to relax  in room.  In fact I am relaxing on the that very same couch as I write this review.  This is the 4th time I have stayed at this location in the past 2 weeks so I can highly recommend the stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r192496933-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>192496933</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>A fun trip</t>
+  </si>
+  <si>
+    <t>Near my friends home.  Large room and comfortable. Nice to have a fridge and microwave. Clean and neat. Friendly staff.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r183785778-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>183785778</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r182999799-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>182999799</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r178578814-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>178578814</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r176911833-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>176911833</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>It was our first stay at Travelodge and we were really...</t>
+  </si>
+  <si>
+    <t>It was our first stay at Travelodge and we were really happy about the experience. The man at the front desk was really helpful and nice. He answered all our questions and offered help when we needed it. The room was spacious and comfortable with a fridge and a microwave. We didn't really explore the area, but it seemed safe. Overall, we would recommend the place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r174603177-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>174603177</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r162314914-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>162314914</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r161422245-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>161422245</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r158058212-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>158058212</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r155917782-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>155917782</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r149007806-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>149007806</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Needs update</t>
+  </si>
+  <si>
+    <t>We booked or stay for 5 nights.  Our first night the room was not made up when we returned at 8:30 at night.  we asked  for a room downstairs and rec'd it.  The room was not made up on the 3rd night.  Had to req clean towels.  The lace was very quiet at night even tho it is on a busy street.  The a/c was loud.  The front desk was very polite and was very apologetic.  We had to ask for a blow dryer since the one in the room was missing.  Our first room had a cofee maker but the second rm did not have one.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r146590286-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>146590286</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Quiet Stay</t>
+  </si>
+  <si>
+    <t>On vacation with my family of four and booked 3 nights initially then booked an additional 2 nights because the Manager/Owner was a very pleasant guy that offered his help many times.  Our room was a standard room with two clean queen sized beds  The room had been updated and the decor was modern with welcoming colors.   The room had adequate space with a table / 2 chairs / microwave / frig.   Staff was nice and helpful.  I would return to this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Bhavesh P, General Manager at Travelodge by Wyndham Whittier, responded to this reviewResponded December 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2012</t>
+  </si>
+  <si>
+    <t>On vacation with my family of four and booked 3 nights initially then booked an additional 2 nights because the Manager/Owner was a very pleasant guy that offered his help many times.  Our room was a standard room with two clean queen sized beds  The room had been updated and the decor was modern with welcoming colors.   The room had adequate space with a table / 2 chairs / microwave / frig.   Staff was nice and helpful.  I would return to this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r134769747-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>134769747</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>I book this hotel on wyndham grou and stay for 2 days, they charged me for 5 days.</t>
+  </si>
+  <si>
+    <t>This hotel is very horrible. I recommend everybody to stay away from this hotel. We fought since they do not clean the room and being rude. As me to leave the hotel in the middle of the night. We should be to the court and close this hotel.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r134737870-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>134737870</t>
+  </si>
+  <si>
+    <t>Not ready for guests yet!</t>
+  </si>
+  <si>
+    <t>Travelodge recently took over and it's obvious the new owners have not upgraded the rooms.  The good points, while few in number, are the beds were comfy, it had a hairdryer and the mini fridge was awesome!  Ok, now the bad...Our toilet had no tank cover, the dust in the room was 1/2 inch thick, the bathroom exhaust fan was held up with duct tape, there were wires hanging out of an outlet that should have contained a light fixture, and there was gang graffiti carved into the bathroom mirror.  The room did not have a coffee pot and coffee was not available, nor breakfast of any kind.  The carpet smelled awful.  There was no ironing board or iron.  There was no cleaning service during our stay and we had to do a towel exchange every day which was fine with us because we didn't want the help in our room anyway.  There was no "do not disturb" door hang but we didn't need it!  The maids do not speak English so what you take to exchange is what you get.  Good luck trying to get a new trash liner in English.  If you stay here, have an interpreter.  I will post pics in a few minutesMoreShow less</t>
+  </si>
+  <si>
+    <t>Travelodge recently took over and it's obvious the new owners have not upgraded the rooms.  The good points, while few in number, are the beds were comfy, it had a hairdryer and the mini fridge was awesome!  Ok, now the bad...Our toilet had no tank cover, the dust in the room was 1/2 inch thick, the bathroom exhaust fan was held up with duct tape, there were wires hanging out of an outlet that should have contained a light fixture, and there was gang graffiti carved into the bathroom mirror.  The room did not have a coffee pot and coffee was not available, nor breakfast of any kind.  The carpet smelled awful.  There was no ironing board or iron.  There was no cleaning service during our stay and we had to do a towel exchange every day which was fine with us because we didn't want the help in our room anyway.  There was no "do not disturb" door hang but we didn't need it!  The maids do not speak English so what you take to exchange is what you get.  Good luck trying to get a new trash liner in English.  If you stay here, have an interpreter.  I will post pics in a few minutesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r125377102-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>125377102</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Scam</t>
+  </si>
+  <si>
+    <t>I book this hotel on booking.com and cancelled it the next day but they still charged me using a different hotel name!!!! STAY AWAY!!!!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r7191366-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>7191366</t>
+  </si>
+  <si>
+    <t>03/18/2007</t>
+  </si>
+  <si>
+    <t>Got to experience a real live drug bust!</t>
+  </si>
+  <si>
+    <t>I work with a non-profit organization that send college aged volunteers across the country.  They work in public elementary schools presenting a musical assembly that is centered around character building and drug and alcohol PREVENTION.  So the fact that there was a drug bust from someone staying at the Guest House was not really funny.  Oh and not to mention there was a free porn station on all of the T.V's.  Sure it looks nice on the outside, but looks are deceiving.  Do NOT stay at this place if you have kids or want  adecent and clean motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r5233750-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>5233750</t>
+  </si>
+  <si>
+    <t>05/28/2006</t>
+  </si>
+  <si>
+    <t>Very Misleading!!!--Pass This One Up!!!!!! (New Owners 6/06 )</t>
+  </si>
+  <si>
+    <t>Apparently, not like it used to be- change in ownership and NOT FOR THE BETTER! Full amount requested up front and say they will refund if you don't stay. however not true. Once you pay- you're stuck, so don't even waste your time.Not clean, nothing works (phone, lights,room's air unit, coffee maker, shower, toilet). Very old and broken down furniture.  Lamps broken with dirty, torn shades. Carpet burnt imprints. Television- limited channels. Maid service-if they remember and what/how they feel like cleaning.Requests, complaints are ignored. No follow thru from desk. manager or owner. It's obvious that the only interest of the owner is in taking guests' money. He has NO interest in treating them as guests or, in training his staff to treat them as guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>Apparently, not like it used to be- change in ownership and NOT FOR THE BETTER! Full amount requested up front and say they will refund if you don't stay. however not true. Once you pay- you're stuck, so don't even waste your time.Not clean, nothing works (phone, lights,room's air unit, coffee maker, shower, toilet). Very old and broken down furniture.  Lamps broken with dirty, torn shades. Carpet burnt imprints. Television- limited channels. Maid service-if they remember and what/how they feel like cleaning.Requests, complaints are ignored. No follow thru from desk. manager or owner. It's obvious that the only interest of the owner is in taking guests' money. He has NO interest in treating them as guests or, in training his staff to treat them as guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r2969698-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>2969698</t>
+  </si>
+  <si>
+    <t>01/01/2005</t>
+  </si>
+  <si>
+    <t>an old, old motel in a not so good neighborhood</t>
+  </si>
+  <si>
+    <t>We stayed one night at Ramade Limited in Whittier.  The room was very old and in a bad shape.  Expect to find moldy bathroom and rusty shower head.   The towels were worse than my kitchen cloth.  The plumbing in our bathroom was clogged, when I showered, water just wouldn't flow out.  This motel definitely needs a major renovation or at least a routine maintainence.  Don't stay here if you really have no choice.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2406,7604 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" t="s">
+        <v>163</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s">
+        <v>180</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>197</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>201</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>232</v>
+      </c>
+      <c r="O38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" t="s">
+        <v>236</v>
+      </c>
+      <c r="L39" t="s">
+        <v>237</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>232</v>
+      </c>
+      <c r="O39" t="s">
+        <v>207</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" t="s">
+        <v>240</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>232</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>242</v>
+      </c>
+      <c r="J41" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>244</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>246</v>
+      </c>
+      <c r="J42" t="s">
+        <v>247</v>
+      </c>
+      <c r="K42" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" t="s">
+        <v>249</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>244</v>
+      </c>
+      <c r="O42" t="s">
+        <v>207</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>244</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>254</v>
+      </c>
+      <c r="J44" t="s">
+        <v>255</v>
+      </c>
+      <c r="K44" t="s">
+        <v>256</v>
+      </c>
+      <c r="L44" t="s">
+        <v>257</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>260</v>
+      </c>
+      <c r="J45" t="s">
+        <v>261</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>258</v>
+      </c>
+      <c r="O45" t="s">
+        <v>207</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" t="s">
+        <v>264</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>258</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" t="s">
+        <v>269</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>270</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>272</v>
+      </c>
+      <c r="J48" t="s">
+        <v>273</v>
+      </c>
+      <c r="K48" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48" t="s">
+        <v>275</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>270</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" t="s">
+        <v>278</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>270</v>
+      </c>
+      <c r="O49" t="s">
+        <v>207</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>280</v>
+      </c>
+      <c r="J50" t="s">
+        <v>281</v>
+      </c>
+      <c r="K50" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" t="s">
+        <v>283</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>270</v>
+      </c>
+      <c r="O50" t="s">
+        <v>207</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>285</v>
+      </c>
+      <c r="J51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K51" t="s">
+        <v>287</v>
+      </c>
+      <c r="L51" t="s">
+        <v>288</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>289</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" t="s">
+        <v>293</v>
+      </c>
+      <c r="L52" t="s">
+        <v>294</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>270</v>
+      </c>
+      <c r="O52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>296</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" t="s">
+        <v>298</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>289</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>299</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>300</v>
+      </c>
+      <c r="J54" t="s">
+        <v>298</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>289</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>302</v>
+      </c>
+      <c r="J55" t="s">
+        <v>303</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>304</v>
+      </c>
+      <c r="O55" t="s">
+        <v>207</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>305</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>306</v>
+      </c>
+      <c r="J56" t="s">
+        <v>307</v>
+      </c>
+      <c r="K56" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" t="s">
+        <v>309</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>310</v>
+      </c>
+      <c r="O56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>312</v>
+      </c>
+      <c r="J57" t="s">
+        <v>313</v>
+      </c>
+      <c r="K57" t="s">
+        <v>314</v>
+      </c>
+      <c r="L57" t="s">
+        <v>315</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>310</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>316</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>317</v>
+      </c>
+      <c r="J58" t="s">
+        <v>318</v>
+      </c>
+      <c r="K58" t="s">
+        <v>319</v>
+      </c>
+      <c r="L58" t="s">
+        <v>320</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>321</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>323</v>
+      </c>
+      <c r="J59" t="s">
+        <v>324</v>
+      </c>
+      <c r="K59" t="s">
+        <v>325</v>
+      </c>
+      <c r="L59" t="s">
+        <v>326</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>327</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>328</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>329</v>
+      </c>
+      <c r="J60" t="s">
+        <v>330</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>327</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>331</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>332</v>
+      </c>
+      <c r="J61" t="s">
+        <v>333</v>
+      </c>
+      <c r="K61" t="s">
+        <v>334</v>
+      </c>
+      <c r="L61" t="s">
+        <v>335</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>327</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>336</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>337</v>
+      </c>
+      <c r="J62" t="s">
+        <v>338</v>
+      </c>
+      <c r="K62" t="s">
+        <v>339</v>
+      </c>
+      <c r="L62" t="s">
+        <v>340</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>341</v>
+      </c>
+      <c r="X62" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>344</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>345</v>
+      </c>
+      <c r="J63" t="s">
+        <v>346</v>
+      </c>
+      <c r="K63" t="s">
+        <v>347</v>
+      </c>
+      <c r="L63" t="s">
+        <v>348</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>349</v>
+      </c>
+      <c r="O63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>352</v>
+      </c>
+      <c r="J64" t="s">
+        <v>346</v>
+      </c>
+      <c r="K64" t="s">
+        <v>353</v>
+      </c>
+      <c r="L64" t="s">
+        <v>354</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>349</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>355</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" t="s">
+        <v>357</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>349</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>359</v>
+      </c>
+      <c r="J66" t="s">
+        <v>360</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>69</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>361</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>362</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>363</v>
+      </c>
+      <c r="J67" t="s">
+        <v>364</v>
+      </c>
+      <c r="K67" t="s">
+        <v>365</v>
+      </c>
+      <c r="L67" t="s">
+        <v>366</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>361</v>
+      </c>
+      <c r="O67" t="s">
+        <v>56</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>367</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>368</v>
+      </c>
+      <c r="J68" t="s">
+        <v>369</v>
+      </c>
+      <c r="K68" t="s">
+        <v>370</v>
+      </c>
+      <c r="L68" t="s">
+        <v>371</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>372</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" t="s">
+        <v>375</v>
+      </c>
+      <c r="K69" t="s">
+        <v>376</v>
+      </c>
+      <c r="L69" t="s">
+        <v>377</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>372</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>378</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>379</v>
+      </c>
+      <c r="J70" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" t="s">
+        <v>381</v>
+      </c>
+      <c r="L70" t="s">
+        <v>382</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>383</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>384</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>385</v>
+      </c>
+      <c r="J71" t="s">
+        <v>386</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>383</v>
+      </c>
+      <c r="O71" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>388</v>
+      </c>
+      <c r="J72" t="s">
+        <v>389</v>
+      </c>
+      <c r="K72" t="s">
+        <v>390</v>
+      </c>
+      <c r="L72" t="s">
+        <v>391</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>392</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>394</v>
+      </c>
+      <c r="J73" t="s">
+        <v>395</v>
+      </c>
+      <c r="K73" t="s">
+        <v>396</v>
+      </c>
+      <c r="L73" t="s">
+        <v>397</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>392</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>398</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>399</v>
+      </c>
+      <c r="J74" t="s">
+        <v>400</v>
+      </c>
+      <c r="K74" t="s">
+        <v>401</v>
+      </c>
+      <c r="L74" t="s">
+        <v>402</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>403</v>
+      </c>
+      <c r="O74" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>404</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" t="s">
+        <v>406</v>
+      </c>
+      <c r="K75" t="s">
+        <v>407</v>
+      </c>
+      <c r="L75" t="s">
+        <v>408</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>409</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>410</v>
+      </c>
+      <c r="J76" t="s">
+        <v>411</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>412</v>
+      </c>
+      <c r="O76" t="s">
+        <v>56</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>413</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>414</v>
+      </c>
+      <c r="J77" t="s">
+        <v>415</v>
+      </c>
+      <c r="K77" t="s">
+        <v>416</v>
+      </c>
+      <c r="L77" t="s">
+        <v>417</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>418</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>419</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>420</v>
+      </c>
+      <c r="J78" t="s">
+        <v>421</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>418</v>
+      </c>
+      <c r="O78" t="s">
+        <v>207</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>422</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>423</v>
+      </c>
+      <c r="J79" t="s">
+        <v>424</v>
+      </c>
+      <c r="K79" t="s">
+        <v>425</v>
+      </c>
+      <c r="L79" t="s">
+        <v>426</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>427</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>428</v>
+      </c>
+      <c r="J80" t="s">
+        <v>429</v>
+      </c>
+      <c r="K80" t="s">
+        <v>430</v>
+      </c>
+      <c r="L80" t="s">
+        <v>431</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>432</v>
+      </c>
+      <c r="O80" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>433</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J81" t="s">
+        <v>435</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>432</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>436</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>437</v>
+      </c>
+      <c r="J82" t="s">
+        <v>438</v>
+      </c>
+      <c r="K82" t="s">
+        <v>439</v>
+      </c>
+      <c r="L82" t="s">
+        <v>440</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>441</v>
+      </c>
+      <c r="O82" t="s">
+        <v>56</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>442</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" t="s">
+        <v>444</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>441</v>
+      </c>
+      <c r="O83" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" t="s">
+        <v>447</v>
+      </c>
+      <c r="K84" t="s">
+        <v>448</v>
+      </c>
+      <c r="L84" t="s">
+        <v>449</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>450</v>
+      </c>
+      <c r="O84" t="s">
+        <v>94</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>451</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J85" t="s">
+        <v>453</v>
+      </c>
+      <c r="K85" t="s">
+        <v>454</v>
+      </c>
+      <c r="L85" t="s">
+        <v>455</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>450</v>
+      </c>
+      <c r="O85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>457</v>
+      </c>
+      <c r="J86" t="s">
+        <v>458</v>
+      </c>
+      <c r="K86" t="s">
+        <v>459</v>
+      </c>
+      <c r="L86" t="s">
+        <v>460</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>461</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>462</v>
+      </c>
+      <c r="J87" t="s">
+        <v>463</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>464</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>465</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>466</v>
+      </c>
+      <c r="J88" t="s">
+        <v>463</v>
+      </c>
+      <c r="K88" t="s">
+        <v>467</v>
+      </c>
+      <c r="L88" t="s">
+        <v>468</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>464</v>
+      </c>
+      <c r="O88" t="s">
+        <v>94</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>470</v>
+      </c>
+      <c r="J89" t="s">
+        <v>471</v>
+      </c>
+      <c r="K89" t="s">
+        <v>472</v>
+      </c>
+      <c r="L89" t="s">
+        <v>473</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>464</v>
+      </c>
+      <c r="O89" t="s">
+        <v>94</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>475</v>
+      </c>
+      <c r="J90" t="s">
+        <v>476</v>
+      </c>
+      <c r="K90" t="s">
+        <v>477</v>
+      </c>
+      <c r="L90" t="s">
+        <v>478</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>464</v>
+      </c>
+      <c r="O90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>479</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>480</v>
+      </c>
+      <c r="J91" t="s">
+        <v>481</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>464</v>
+      </c>
+      <c r="O91" t="s">
+        <v>56</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>482</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>483</v>
+      </c>
+      <c r="J92" t="s">
+        <v>484</v>
+      </c>
+      <c r="K92" t="s">
+        <v>485</v>
+      </c>
+      <c r="L92" t="s">
+        <v>486</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>487</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>488</v>
+      </c>
+      <c r="J93" t="s">
+        <v>484</v>
+      </c>
+      <c r="K93" t="s">
+        <v>489</v>
+      </c>
+      <c r="L93" t="s">
+        <v>490</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>491</v>
+      </c>
+      <c r="O93" t="s">
+        <v>207</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>492</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>493</v>
+      </c>
+      <c r="J94" t="s">
+        <v>494</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>491</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>495</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>496</v>
+      </c>
+      <c r="J95" t="s">
+        <v>497</v>
+      </c>
+      <c r="K95" t="s">
+        <v>498</v>
+      </c>
+      <c r="L95" t="s">
+        <v>499</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>500</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>501</v>
+      </c>
+      <c r="J96" t="s">
+        <v>502</v>
+      </c>
+      <c r="K96" t="s">
+        <v>503</v>
+      </c>
+      <c r="L96" t="s">
+        <v>504</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>505</v>
+      </c>
+      <c r="O96" t="s">
+        <v>94</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>506</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>507</v>
+      </c>
+      <c r="J97" t="s">
+        <v>508</v>
+      </c>
+      <c r="K97" t="s">
+        <v>509</v>
+      </c>
+      <c r="L97" t="s">
+        <v>510</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>511</v>
+      </c>
+      <c r="O97" t="s">
+        <v>56</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>512</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>513</v>
+      </c>
+      <c r="J98" t="s">
+        <v>514</v>
+      </c>
+      <c r="K98" t="s">
+        <v>515</v>
+      </c>
+      <c r="L98" t="s">
+        <v>516</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>511</v>
+      </c>
+      <c r="O98" t="s">
+        <v>94</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>518</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>519</v>
+      </c>
+      <c r="J99" t="s">
+        <v>520</v>
+      </c>
+      <c r="K99" t="s">
+        <v>521</v>
+      </c>
+      <c r="L99" t="s">
+        <v>522</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>505</v>
+      </c>
+      <c r="O99" t="s">
+        <v>94</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>523</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>524</v>
+      </c>
+      <c r="J100" t="s">
+        <v>525</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>505</v>
+      </c>
+      <c r="O100" t="s">
+        <v>94</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>526</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>527</v>
+      </c>
+      <c r="J101" t="s">
+        <v>528</v>
+      </c>
+      <c r="K101" t="s">
+        <v>529</v>
+      </c>
+      <c r="L101" t="s">
+        <v>530</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>531</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>532</v>
+      </c>
+      <c r="J102" t="s">
+        <v>533</v>
+      </c>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>505</v>
+      </c>
+      <c r="O102" t="s">
+        <v>56</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>534</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>535</v>
+      </c>
+      <c r="J103" t="s">
+        <v>536</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>537</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>505</v>
+      </c>
+      <c r="O103" t="s">
+        <v>94</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>538</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>539</v>
+      </c>
+      <c r="J104" t="s">
+        <v>540</v>
+      </c>
+      <c r="K104" t="s">
+        <v>541</v>
+      </c>
+      <c r="L104" t="s">
+        <v>542</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>543</v>
+      </c>
+      <c r="O104" t="s">
+        <v>51</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>544</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>545</v>
+      </c>
+      <c r="J105" t="s">
+        <v>546</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>547</v>
+      </c>
+      <c r="O105" t="s">
+        <v>71</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>548</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>549</v>
+      </c>
+      <c r="J106" t="s">
+        <v>550</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>551</v>
+      </c>
+      <c r="O106" t="s">
+        <v>56</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>552</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>553</v>
+      </c>
+      <c r="J107" t="s">
+        <v>554</v>
+      </c>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s"/>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>555</v>
+      </c>
+      <c r="O107" t="s">
+        <v>71</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>556</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>557</v>
+      </c>
+      <c r="J108" t="s">
+        <v>558</v>
+      </c>
+      <c r="K108" t="s">
+        <v>559</v>
+      </c>
+      <c r="L108" t="s">
+        <v>560</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>555</v>
+      </c>
+      <c r="O108" t="s">
+        <v>56</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>561</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>562</v>
+      </c>
+      <c r="J109" t="s">
+        <v>563</v>
+      </c>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s"/>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>564</v>
+      </c>
+      <c r="O109" t="s">
+        <v>56</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>565</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>566</v>
+      </c>
+      <c r="J110" t="s">
+        <v>567</v>
+      </c>
+      <c r="K110" t="s"/>
+      <c r="L110" t="s">
+        <v>69</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>568</v>
+      </c>
+      <c r="O110" t="s">
+        <v>56</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>569</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>570</v>
+      </c>
+      <c r="J111" t="s">
+        <v>571</v>
+      </c>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>568</v>
+      </c>
+      <c r="O111" t="s">
+        <v>207</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>572</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>573</v>
+      </c>
+      <c r="J112" t="s">
+        <v>574</v>
+      </c>
+      <c r="K112" t="s"/>
+      <c r="L112" t="s"/>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>575</v>
+      </c>
+      <c r="O112" t="s">
+        <v>56</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>576</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>577</v>
+      </c>
+      <c r="J113" t="s">
+        <v>578</v>
+      </c>
+      <c r="K113" t="s"/>
+      <c r="L113" t="s"/>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>579</v>
+      </c>
+      <c r="O113" t="s">
+        <v>56</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>580</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>581</v>
+      </c>
+      <c r="J114" t="s">
+        <v>582</v>
+      </c>
+      <c r="K114" t="s">
+        <v>583</v>
+      </c>
+      <c r="L114" t="s">
+        <v>584</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>585</v>
+      </c>
+      <c r="O114" t="s">
+        <v>71</v>
+      </c>
+      <c r="P114" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>586</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>587</v>
+      </c>
+      <c r="J115" t="s">
+        <v>588</v>
+      </c>
+      <c r="K115" t="s">
+        <v>589</v>
+      </c>
+      <c r="L115" t="s">
+        <v>590</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="s">
+        <v>591</v>
+      </c>
+      <c r="O115" t="s">
+        <v>71</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>592</v>
+      </c>
+      <c r="X115" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>595</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>596</v>
+      </c>
+      <c r="J116" t="s">
+        <v>597</v>
+      </c>
+      <c r="K116" t="s">
+        <v>598</v>
+      </c>
+      <c r="L116" t="s">
+        <v>599</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>600</v>
+      </c>
+      <c r="O116" t="s">
+        <v>71</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>1</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>601</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>602</v>
+      </c>
+      <c r="J117" t="s">
+        <v>597</v>
+      </c>
+      <c r="K117" t="s">
+        <v>603</v>
+      </c>
+      <c r="L117" t="s">
+        <v>604</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
+        <v>600</v>
+      </c>
+      <c r="O117" t="s">
+        <v>71</v>
+      </c>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>606</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>607</v>
+      </c>
+      <c r="J118" t="s">
+        <v>608</v>
+      </c>
+      <c r="K118" t="s">
+        <v>609</v>
+      </c>
+      <c r="L118" t="s">
+        <v>610</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>611</v>
+      </c>
+      <c r="O118" t="s">
+        <v>71</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>1</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>612</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>613</v>
+      </c>
+      <c r="J119" t="s">
+        <v>614</v>
+      </c>
+      <c r="K119" t="s">
+        <v>615</v>
+      </c>
+      <c r="L119" t="s">
+        <v>616</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>617</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>618</v>
+      </c>
+      <c r="J120" t="s">
+        <v>619</v>
+      </c>
+      <c r="K120" t="s">
+        <v>620</v>
+      </c>
+      <c r="L120" t="s">
+        <v>621</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="s"/>
+      <c r="S120" t="n">
+        <v>1</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>1</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>23774</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>623</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>624</v>
+      </c>
+      <c r="J121" t="s">
+        <v>625</v>
+      </c>
+      <c r="K121" t="s">
+        <v>626</v>
+      </c>
+      <c r="L121" t="s">
+        <v>627</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" t="s"/>
+      <c r="S121" t="n">
+        <v>2</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>3</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_808.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_808.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="746">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rongonzalez17</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>duenasj2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r557463658-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>jakef201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r556897631-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>Night manager was very rude and shady looking. Upon entering the room we were hit with a terrible smell. The floors were visibly stained with a dried up white liquid, the hot tub and sink area was dirty. On top of all this the TV did not work and the lights turned on by themselves through out the night waking me and my partner up multiple times.</t>
   </si>
   <si>
+    <t>ixtlanab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r545845022-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -216,6 +228,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Dianne F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r543875331-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -237,6 +252,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>rayylouis21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r541044455-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -252,6 +270,9 @@
     <t>Showed up to check in service was rude. Stairs were section off with caution tape as if a crime had happen hours before ac didn’t work well strange odor from the vents will never stay at this place again</t>
   </si>
   <si>
+    <t>georgegK8763WY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r509058226-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -264,6 +285,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>295bm389</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r506015142-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -282,6 +306,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>tonybT8988YO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r497794291-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -303,6 +330,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>givensk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r491537010-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -312,6 +342,9 @@
     <t>06/08/2017</t>
   </si>
   <si>
+    <t>2myishas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r491531819-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -327,6 +360,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>kaylaw14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r484976728-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -336,6 +372,9 @@
     <t>05/17/2017</t>
   </si>
   <si>
+    <t>corazonf311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r478877673-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -348,6 +387,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>chris1226232</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r475155084-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -363,6 +405,9 @@
     <t xml:space="preserve">It was a last minute booking. Can't complain. Missed breakfast but that was my fault, over slept. Bed was comfortable and TV had. Ice selection of channels. Also room was clean. </t>
   </si>
   <si>
+    <t>Banuwati</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r474136105-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -378,6 +423,9 @@
     <t>This hotel is conveniently located on Whittier Blvd so is easy to access as you drive into town from the freeway.  It is quite clean but basic.  There is a refrigerator, microwave and coffee maker along with a flat screen tv with a plethora of channels.  The breakfast is a standard free breakfast of cereal, donuts, toast and fruit along with coffee, tea and juice.  For the price, I felt it was a decent value.</t>
   </si>
   <si>
+    <t>johntP3180ZA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r471288157-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -390,6 +438,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Rey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r470736231-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -405,6 +456,9 @@
     <t xml:space="preserve">Parking is very limited. Overall, our stay was decent, but I'd probably stay somewhere else next time I'm in town. </t>
   </si>
   <si>
+    <t>Jessenoel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r468841392-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -420,6 +474,9 @@
     <t>Carpet was filthy that left our socks black, maid did not clean first day, then Ac went out for two days, when moved to new room the "owner" complained about night clerk, said" he thinks he is still in India and thinks he can do whatever the hell he wants". The night clerk was a great help with our issues, we left during the day to return to issues for 4 nights. The maid service is horrible. Blood splatters on wall in the rr, a baby's top left in new room. The day Manger stated the owner is having an affair with maid and that the maid is causing issues, owner stated night clerk was taking money, it was the worst stay ever. More</t>
   </si>
   <si>
+    <t>deannao195</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r463924780-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -436,6 +493,9 @@
   </si>
   <si>
     <t>February 2017</t>
+  </si>
+  <si>
+    <t>212mohammadh</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r450285378-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
@@ -461,6 +521,9 @@
 Moreover, all the lights were automatic with motion detection sensors. All of them turned off after a few minutes ... very awkward! I had to keep the TV on with a unprogrammed channel and used it as a night light :)...I stayed there with my 3 year old daughter in room 224. The washroom lock was accidentally turned on by my daughter. Luckily she was outside. The lock was weird and had a tiny hole in front. I asked the reception how to open that and the guy told there is no key to open that. I told him to unscrew the lock as I don't need the lock. He unscrewed the lock and told me that they will change the lock tomorrow. The manager (I presume strongly) came the next morning and treated me like I came with a bag from a village from southeast asia and and landed in LA for the 1st time. He told me, "This is american way! All the locks are like this. You should teach your daughter to unlock the door. (Again) This is american way!" He looked like a cunning manipulator. The handyman gave me a special key which goes through the tiny hole of the lock and showed me how to open that. I was thinking what would have happened if my daughter locked herself inside that night!! The reception didn't even had the key to unlock the washroom door.Moreover, all the lights were automatic with motion detection sensors. All of them turned off after a few minutes ... very awkward! I had to keep the TV on with a unprogrammed channel and used it as a night light :) because of my daughter and wife who do not like peach black darkness in the room.The plumbing and sewerage system needs total replacement. The washrooms smells bad because of gas leaking from the toilet bowl or basin/bathtub. The shower was like a zigzag maze of cold and hot water. Few second cold water and few seconds very hot water comes which makes it very difficult to take shower.I had to stay there for few nights very unwillingly because I had a lot of luggage and I didn't want to waste time and energy moving to a new hotel.As a whole, It was a horrible experience!More</t>
   </si>
   <si>
+    <t>Steven S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r444861645-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -497,6 +560,9 @@
     <t>The room was nice. Location of hotel is not what I would normally select. Comfortable beds. Dark black curtains. Clean. Water pressure in shower is less than desirable.</t>
   </si>
   <si>
+    <t>Tara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r441446140-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -512,6 +578,9 @@
     <t xml:space="preserve">This place else was very clean and nicely updated.  I was worried about street noise but slept very well.   I was a bit surprised because the price was low.  The surrounding area is questionable.  I wouldn't stay here without my hubby.  </t>
   </si>
   <si>
+    <t>mariahr02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r441103048-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -527,6 +596,9 @@
     <t xml:space="preserve">The hotel was clean and close enough for everything we wanted to do. The breakfast wasn't great and was always late. You are not allowed to take food to your room </t>
   </si>
   <si>
+    <t>Tone K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r431633691-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -548,6 +620,9 @@
     <t>Website was running a special for 90/night. At $200 for two nights, definitely was not worth it. Pulled in Friday night about 11 there was a door open to one of the rooms playing very loud music. It was not far from the office no less. I went up to the night window and waited a couple of minutes for the clerk to finish his conversation with whom ever he was training. Not so much as a hello or welcome??? I had to ask where my room was and for wifi password. Very, very unfriendly and unhelpful staff. There was also a young woman going back and forth behind the hotel, didn't bother asking what that was about. The room itself was good. Seemed clean and well kept. Thought it was just me, but others also stated that the shower changes temperature hot to cold. Parking is very tight. Checked out, again with the most unfriendliest clerk in the world. Would definitely not stay here again!!More</t>
   </si>
   <si>
+    <t>vpsocal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r431322098-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -566,6 +641,9 @@
     <t>Checked into room, but computerized room key would not lock our door. Repacked and changed rooms. Unpacked, then found out the toilet seat was not bolted down at all. Back to front desk. Offered us another room, but we had no time to move again as we were going to a wedding. My husband asked them to fix the seat. They told us the maids had left for the day, but would take a look at it. My husband told them to take the bolts from the other room that had the bad lock. We had to ask for more towels and  a pillow, as there were three of us staying in the room. They were out of pillows. The sink was missing a stopper as well. When we retuned from the wedding, no one had been to our room. My husband went to the office again. Ten minutes later, two young men came up to fix the toilet, said they would return shortly, but never did. I don't know how or why this place stays in business. We got out as fast as we could the next morning. Place is falling apart at the seams, and no one seems to care.More</t>
   </si>
   <si>
+    <t>623brentr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r423145598-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -576,6 +654,9 @@
   </si>
   <si>
     <t>September 2016</t>
+  </si>
+  <si>
+    <t>Mitch M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r415299571-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
@@ -598,6 +679,9 @@
 We went to the front desk and asked to cancel our reservation. The night clerk told me for 3 or 4 minutes that it was impossible, and that his boss...I can't stress enough how terrible an experience we had in a brief stay at Travelodge Whittier. We checked in after a night at the Hollywood Bowl, and felt a bit off as soon as we saw the property. The parking lot is in poor repair, and the exterior of the building looked faded and rust-run. We didn't feel very welcomed from the start, since the lobby was locked down, and the only way to check in was through a bank-style security window. The night clerk seemed bothered to get up from laying down on the lobby couch to check us in, but eventually we were checked in and put our uneasiness aside in hopes of being able to grab some shuteye. No such luck. Even though we had booked a non-smoking room, we were assaulted by a waft of smells when we opened the door to our room, which can only be described as a mixture of old cigarette smoke and musty blankets. The bed was hard and the carpet was stained, but the straw that broke the camel's back was the bathroom. The toilet hadn't been cleaned, and there was water on the tile floor (I slipped on this, but luckily was still holding on to the door.)We went to the front desk and asked to cancel our reservation. The night clerk told me for 3 or 4 minutes that it was impossible, and that his boss wouldn't be happy about this. He offered to have us change rooms, but we were done with this place. He finally agreed to cancel our reservation and refund our money (which we have not received back yet). Luckily our next hotel was able to accommodate us for another night, and all was well. I wouldn't recommend this place to my worst enemy, and would rather sleep in my car!More</t>
   </si>
   <si>
+    <t>994Alexandra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r410797301-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -616,6 +700,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>richardlS8908OR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r407254501-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -628,6 +715,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Travis D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r403202454-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -646,6 +736,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Ricardo L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r402449556-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -655,6 +748,9 @@
     <t>08/07/2016</t>
   </si>
   <si>
+    <t>Cherrie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r395634916-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -664,6 +760,9 @@
     <t>07/22/2016</t>
   </si>
   <si>
+    <t>Ryan_154470</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r393345598-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -679,6 +778,9 @@
     <t xml:space="preserve">Stayed there for only 3 days. My first day walking in, it smelled like if someone smoked I had opened the window &amp; door, didn't work. The bad odor didnt go away. Carpet needs a deep clean. Couch is really dirty &amp; stained. Headboard above bed is very dusty. Dresser below t.v. is broken couldn't use it. --And for the hotel cleaners, for the first 2 nights 2 ladies had cleaned our hotel really good, our last night a lady didn't clean so good. </t>
   </si>
   <si>
+    <t>Marleny O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r392597153-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -694,6 +796,9 @@
     <t>We stayed for 3 nights. Location is good. If you're looking for a hotel with breakfast this is not the right one. Breakfast is served from 6-9 am. I only went the first morning and it was a waste of time. Coffee was terrible. Breakfast is the worse I've ever seen in a hotel.</t>
   </si>
   <si>
+    <t>Carlos S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r391772460-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -703,6 +808,9 @@
     <t>07/12/2016</t>
   </si>
   <si>
+    <t>KLMabel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r388153322-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -721,6 +829,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Z3702JLchristineg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r384723543-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -736,6 +847,9 @@
     <t xml:space="preserve">I booked two nights for my mother. She loved the room. I booked 1st night go free which was honored. The 2nd night was not honored. He was to lazy to look for the second booking which Wyndham books separately I don't know why. Well instead of her paying $40 with go fast points, she was charged full price. I called and they seen the reservation but canceled it instead of honoring it. All I got was apologies instead of making it right. This has happened twice with this property. </t>
   </si>
   <si>
+    <t>T5633BLvalerieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r382313647-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -745,6 +859,9 @@
     <t>06/13/2016</t>
   </si>
   <si>
+    <t>Maria C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r379264675-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -757,6 +874,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>destineyd2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r374348027-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -772,6 +892,9 @@
     <t xml:space="preserve">The water never held a constant temp, going from blazing hot to ice cold. Found some food wrappers on the floor when we first got in. Towels were like sandpaper. Only giving 2 stars because the staff was nice. </t>
   </si>
   <si>
+    <t>479duanep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r372082818-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -781,6 +904,9 @@
     <t>05/11/2016</t>
   </si>
   <si>
+    <t>veronicarD9684HC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r368183984-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -799,6 +925,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>gabrielf127</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r366626426-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -808,6 +937,9 @@
     <t>04/23/2016</t>
   </si>
   <si>
+    <t>Paul L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r364018242-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -817,6 +949,9 @@
     <t>04/13/2016</t>
   </si>
   <si>
+    <t>Peter V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r360396875-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -835,6 +970,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>243marshallw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r358830632-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -850,6 +988,9 @@
     <t xml:space="preserve">Just spent three days with the very nice people at the Whitter location and everything was just great , good parking , nice office mgr, free breakfast, and a clean room with plenty of amenities </t>
   </si>
   <si>
+    <t>Carlos R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r358426078-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -859,6 +1000,9 @@
     <t>03/25/2016</t>
   </si>
   <si>
+    <t>Wendy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r355445201-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -874,6 +1018,9 @@
     <t xml:space="preserve">We stayed for several nights with friends and while the rooms were clean, the whole place looked old and tired and could do with a bit of work. the area was a bit ordinary with barb wire round the car park at the back, so I certainly wouldn't stay there again. </t>
   </si>
   <si>
+    <t>suzannep588</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r354165568-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -892,6 +1039,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jerry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r353681400-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -910,6 +1060,9 @@
     <t>You get what you pay for. I stayed 3 days and 2 nights. Upon arrival the refrigerator did not work. I informed the front desk and within 15 minutes a New refrigerator was delivered. While the bed, sheets, floor bathroom were clean I did have issues. 1. Carpet was extremely soiled and needs a deep shampooing or replacement. Slippers or socks needed. Bare feet not recommended.2. The bath tub/shower was cleaned however it appeared a prior occupant used the tub to dye clothing. The tub needs a chemical cleaning to remove dye. I was not comfortable using tub or shower. 3. The pillows are small and lumpy. I would have requested a change in room if I was going to stay 1 or more nights so I could shower or purchased flip flops. More</t>
   </si>
   <si>
+    <t>Larry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r348543089-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -919,12 +1072,18 @@
     <t>02/17/2016</t>
   </si>
   <si>
+    <t>laventureclan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r348486296-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
     <t>348486296</t>
   </si>
   <si>
+    <t>edwarddZ7033VU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r342682467-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -937,6 +1096,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>N4121EXstepheng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r336689955-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -955,6 +1117,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>680sylvial</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r334055072-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -970,6 +1135,9 @@
     <t xml:space="preserve">Hotel bathrooms where dirty and old! House cleaning didn't scrub the toilet properly and was not a pleasant view for us  to see. Hotel sits on main road and car niece will keep you up . </t>
   </si>
   <si>
+    <t>P2507NJroberth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r331520069-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -988,6 +1156,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>bryanscom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r324954739-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1006,6 +1177,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>melissatI6168MH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r321712030-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1015,6 +1189,9 @@
     <t>10/25/2015</t>
   </si>
   <si>
+    <t>slates30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r320711659-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1028,6 +1205,9 @@
   </si>
   <si>
     <t>I was very (pleasantly) surprised considering how much we paid as I was expecting less. Room was very clean, quiet, had all the necessary inclusions to make for a great stay. Wifi was fast. I would definitely recommend this place. Area around room got a little noisy at around 6 as workers left the accommodation.</t>
+  </si>
+  <si>
+    <t>cynthia v</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r301694836-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
@@ -1056,6 +1236,9 @@
 Bc I was hosting a charity event nearby. I needed somewhere to get ready prior to the event, I called in the morning of my check in and asked if it was possible to check in before 3, the guy said no. On my way to where my banquet was going to be, I passed the hotel so I decided to stop by to just see if there was by any chance any room available or if I can at least get my room keys since I knew I was gonna be rushing later... biggest mistake ever. The man yelled at me, complained about me and other customers doing this, that it's not the hotels fault I have a charity function to host (lol) I was baffled by his tone, he continued to yell at me and complain about me calling and then showing up to ask. He was loud and aggressive. I asked him to calm down and goes NO DO U WANNA JUST CANCEL, I CAN CANCEL YOUR RESERVATION!! I had no time to figure out my room situation so I said no, just allow me to check in and get my keys, I won't go into the room until after 3... I let him know there was a way to talk and treat ppl, as I run a business as well, he sarcastically says really princess, how would u...DO NOT COME HERE!!!!!!!!!! I booked this roomBc I was hosting a charity event nearby. I needed somewhere to get ready prior to the event, I called in the morning of my check in and asked if it was possible to check in before 3, the guy said no. On my way to where my banquet was going to be, I passed the hotel so I decided to stop by to just see if there was by any chance any room available or if I can at least get my room keys since I knew I was gonna be rushing later... biggest mistake ever. The man yelled at me, complained about me and other customers doing this, that it's not the hotels fault I have a charity function to host (lol) I was baffled by his tone, he continued to yell at me and complain about me calling and then showing up to ask. He was loud and aggressive. I asked him to calm down and goes NO DO U WANNA JUST CANCEL, I CAN CANCEL YOUR RESERVATION!! I had no time to figure out my room situation so I said no, just allow me to check in and get my keys, I won't go into the room until after 3... I let him know there was a way to talk and treat ppl, as I run a business as well, he sarcastically says really princess, how would u like me to speak to you? It took every piece of me to not jump over the counter and punch him in the face. If it wasn't for my charity event I needed to set up for... I would've cancelled my reservation for sure. WORSE SERVICE EVER!!!!!!!!!!!!!!!!!!!!!! Save your $. Stay elsewhere.More</t>
   </si>
   <si>
+    <t>Cyrstal L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r300949446-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1077,6 +1260,9 @@
     <t>OK I have to say Whittier is not a well known place to visit, but this place could have at least have tried to be presentable. The building is old and it showed even through the poor paint job they did to cover it up. The colors and choice of decor made it look dirty. The linens were old, worn and cheap and hardly covered the awful pillows. They were stained and flat from over use. Rather then buying better quality pillows I think they washed them which made the stuffing bunch up and still remained very stained. The door did not close properly to catch on the plate on the frame much less the dead bolt fitting it's hole. No security bar just a cheap flimsy chain, I ended up taking my belongings with me on my evening out. The refrigerator never got  cold after I turned it on full. Now worst of all BUGS! There were little dead ones on the bathroom floor but what made me mad and freaked me out was the cock roach next to me when I woke up during the night. I took pictures but my camera did not focus to well on a moving target. The mattress was like sleeping on a bad box spring.More</t>
   </si>
   <si>
+    <t>960rosal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r300941163-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1089,6 +1275,9 @@
     <t>Carpets for all three rooms were horribly dirty. Turned our socks black! Front lobby smelled of rancid Indian food. Nauseated. Towels old and shabby. Parking was horrible. Felt very unsafe in the back lot. Front lobby personnel did not answer the buzz when I tried checking in. I had to call to get someone to help me. Would not recommend. You get what you pay for!</t>
   </si>
   <si>
+    <t>cbishop93</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r296140641-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1098,6 +1287,9 @@
     <t>08/05/2015</t>
   </si>
   <si>
+    <t>stephanierG7607ZS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r292175456-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1110,6 +1302,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>817shantalg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r291278958-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1125,6 +1320,9 @@
     <t xml:space="preserve">Call to make reservations if your doing it over the Internet on your phone your reservation is guaranteed. Other then that the hotel was great. The bed was comfortable and the place was clean.   </t>
   </si>
   <si>
+    <t>Mary A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r281944827-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1143,6 +1341,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>4dawnm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r278154221-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1158,6 +1359,9 @@
     <t>We arrived and checked in the afternoon the AC was not working they changed us to another room.  The bed was very uncomfortable and you could hear the other guest snoring through the shared walls.  I've stayed at other hotels but paying $100 a night I thought it would've been a little better quality wise.  Also the shower was extremely slippery and there was nothing to help with that</t>
   </si>
   <si>
+    <t>Luz G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r275406422-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1176,6 +1380,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>mariavA1110DD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r270255619-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1185,6 +1392,9 @@
     <t>05/05/2015</t>
   </si>
   <si>
+    <t>Sharon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r268912489-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1203,6 +1413,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r265555727-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1218,6 +1431,9 @@
     <t xml:space="preserve">hotel was clean. counter service was good. fire alarm going off in my room and several others at 1:00 am was NOT appreciated followed 3 minutes later by a fire truck with lights flashing stoping in front of my window. they walked around, looked at a few things, and left. didn't sleep the rest of the night. continental breakfast was 3 kinds of cereal, bread for toast, and apples.   </t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r259433829-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1236,6 +1452,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>prettyserena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r257862773-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1251,6 +1470,9 @@
     <t>It's a one star hotel. You pay for a two star price but you get one star. The place looks like it wasn't cleaned, and it's just nasty in there. The bedding is falling apart . I felt unsafe there and the pictures looked very nice on the site, but that is not what you get.</t>
   </si>
   <si>
+    <t>182misaelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r254601541-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1263,6 +1485,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Larry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r242862324-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1281,6 +1506,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>KrisMagan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r239149639-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1290,6 +1518,9 @@
     <t>11/10/2014</t>
   </si>
   <si>
+    <t>Cebulia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r237624834-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1305,6 +1536,9 @@
     <t>The bathtub, carpet, and the box spring were filthy.  There was no smoke alarm. We had cockroaches and even though we had a smoking room,  the overwhelming smell was the nasty disenfectant. We booked based on the Travelodge name and we're very disappointed.</t>
   </si>
   <si>
+    <t>TheEasyRider2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r231933509-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1323,6 +1557,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Nancy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r228709160-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1332,6 +1569,9 @@
     <t>09/13/2014</t>
   </si>
   <si>
+    <t>Wayne W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r226669580-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1350,6 +1590,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r223960281-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1359,6 +1602,9 @@
     <t>08/23/2014</t>
   </si>
   <si>
+    <t>Derek O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r221988939-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1377,6 +1623,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Alisha E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r217481013-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1392,6 +1641,9 @@
     <t>Customer service was great! They let me check out later and gave me some free toiletries that I forgot at home. One of the employees at the desk, Dan, gave me such a good rate, and did whatever he could to make my stay a great one. It was clean, close to my job for the 2 days I was there, and affordable. I would definitely stay there again.</t>
   </si>
   <si>
+    <t>AWPJR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r213362203-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1407,6 +1659,9 @@
     <t>My wife and I found the quality of integrity, and character in the staff; meaning: "They are what they say!" That was the personal experience of comfort, and cleanliness we enjoyed for our three day stay; "Which needs to be honored!"</t>
   </si>
   <si>
+    <t>Ann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r211159942-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1419,6 +1674,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Anders W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r211092225-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1431,6 +1689,9 @@
     <t>Very nice hotell and very nice staff!Always helps you with questions or whatever.The rooms have big beds and the ac is working flawless!wish we could move in! haha!We will gladly come back!//The Swedes</t>
   </si>
   <si>
+    <t>Hamid H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r210455935-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1446,6 +1707,9 @@
     <t>Clean, Quiet, and cool - what more could you ask for?!? (plus a free breakfast , a good cup of coffee, and  Dan was a congenial host!)  Will definitely stay there again.    Particularly appreciated the efficient air conditioning and the absolue absence of street noise even though Whittier Blvd. has Heavy traffic.  Parking is a breeze. Pizza Hut and McDonalds are less than a block away, Denny's is about 1 1/2 block and "Jack's" (a famous Whittier family restaruant) is just a short drive East on Whittier Blvd. A very convenient and cost effective trip.. H. Hashemian</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r210351110-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1461,6 +1725,9 @@
     <t>The hotel is ok considering the part of east Los Angeles where its located. I gave my credit card to the night staff when I checked in and the very next day I had a whole lot of unauthorized charges on my card. That is th eonly place I used my card I have not the the card a week prior to staying in that particular hotel. So I feel very  strongly saying that the man that took my credit card that night took my Identity and credit card number and used it or sold it to hackers...</t>
   </si>
   <si>
+    <t>Vincent G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r210078333-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1470,6 +1737,9 @@
     <t>06/12/2014</t>
   </si>
   <si>
+    <t>prcarlita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r207177561-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1485,6 +1755,9 @@
     <t>What made this stay amazing was the teamwork of the staff in assisting me in obtaining the best possible value for my stay. I will definitely stay again! This location is conveniently located between the two cities I do business in. Instead of making reservations online I would call this site directly.Hope this was helpful!</t>
   </si>
   <si>
+    <t>luv2tr4vl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r207122114-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1500,6 +1773,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>John F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r206387545-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1509,6 +1785,9 @@
     <t>05/20/2014</t>
   </si>
   <si>
+    <t>Brock888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r201624492-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1524,6 +1803,9 @@
     <t xml:space="preserve">Great accommodations on a budget. Friendly and helpful staff. Convient location near shopping center. Especially recommended for business travelers. The staff is knowledgable about local attractions. Well maintained facilities with plenty of parking.  </t>
   </si>
   <si>
+    <t>383elv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r200747850-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1542,6 +1824,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Juan I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r200590493-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1560,6 +1845,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Bob M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r199829005-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1578,6 +1866,9 @@
     <t>We have stayed here three years in a row when in the area for business, this time for three consecutive nights.  The management is very friendly and helpful, especially helping us park our huge van, either by holding a spot for us in the front lot and guiding us safely into the parking spot, or letting us in and out of the locked overflow lot. The room is nicely decorated and suits our needs for work area with good internet access (we are directly above the office).  The refrigerator works well, keeping food cold without freezing. The dressing area is spacious with ample space to hang clothes. Continental breakfast is adequate, not fancy or elaborate, but sufficient.  I have only two complaints with the room we are in this time: a dripping bathtub faucet and a faulty sensor on the light next to the bed, that causes the light to stay on only a few seconds, then goes on and off with every move we make.  Despite these two issues, we are very appreciative of the warm and friendly greeting whenever we see the staff, the courteous and helpful service, and the comfort and decor of the room.  We will be back next year.More</t>
   </si>
   <si>
+    <t>Ralph C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r199573336-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1593,6 +1884,9 @@
     <t xml:space="preserve">The people were very friendly and assisted us with our needs.  The room was nice, clean and off the road so we didn't have any road noise.  </t>
   </si>
   <si>
+    <t>Norma M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r198755276-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1602,6 +1896,9 @@
     <t>03/26/2014</t>
   </si>
   <si>
+    <t>Steverinsd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r198204644-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1617,6 +1914,9 @@
     <t>Due to the nature of my work assignment I decided to stay at this motel intermittently during 2012 and 2013. I was pleasantly surprised with always a clean room to come home to. The staff were always nice and if I ever needed a thing, were always willing to go above and beyond. Modestly priced too.</t>
   </si>
   <si>
+    <t>Alicia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r197893285-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1626,6 +1926,9 @@
     <t>03/18/2014</t>
   </si>
   <si>
+    <t>JAMIE G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r197159079-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1638,6 +1941,9 @@
     <t>This is an ideal place to stay in the Los Angeles area.  I work nights throughout the LA area and this place was very quiet in the night and especially during the daytime hours.  The bed was fabulous and the room service was very accommodating giving my irregular schedule.  The room had a love seat couch that was such a nice change to relax  in room.  In fact I am relaxing on the that very same couch as I write this review.  This is the 4th time I have stayed at this location in the past 2 weeks so I can highly recommend the stay.</t>
   </si>
   <si>
+    <t>Maureen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r192496933-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1656,6 +1962,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Beverly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r183785778-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1668,6 +1977,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Voegtli T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r182999799-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1680,6 +1992,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>lisahayes29140</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r178578814-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1692,6 +2007,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Marta C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r176911833-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1707,6 +2025,9 @@
     <t>It was our first stay at Travelodge and we were really happy about the experience. The man at the front desk was really helpful and nice. He answered all our questions and offered help when we needed it. The room was spacious and comfortable with a fridge and a microwave. We didn't really explore the area, but it seemed safe. Overall, we would recommend the place.</t>
   </si>
   <si>
+    <t>Mirindateressa Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r174603177-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1719,6 +2040,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Lore J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r162314914-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1731,6 +2055,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>P S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r161422245-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1740,6 +2067,9 @@
     <t>05/21/2013</t>
   </si>
   <si>
+    <t>Blake G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r158058212-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1752,6 +2082,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Susy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r155917782-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1764,6 +2097,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Doreen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r149007806-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1782,6 +2118,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Cathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r146590286-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1809,6 +2148,9 @@
     <t>On vacation with my family of four and booked 3 nights initially then booked an additional 2 nights because the Manager/Owner was a very pleasant guy that offered his help many times.  Our room was a standard room with two clean queen sized beds  The room had been updated and the decor was modern with welcoming colors.   The room had adequate space with a table / 2 chairs / microwave / frig.   Staff was nice and helpful.  I would return to this hotel again.More</t>
   </si>
   <si>
+    <t>SupriyadiCorvallis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r134769747-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1827,6 +2169,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>TammyLee h P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r134737870-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1842,6 +2187,9 @@
     <t>Travelodge recently took over and it's obvious the new owners have not upgraded the rooms.  The good points, while few in number, are the beds were comfy, it had a hairdryer and the mini fridge was awesome!  Ok, now the bad...Our toilet had no tank cover, the dust in the room was 1/2 inch thick, the bathroom exhaust fan was held up with duct tape, there were wires hanging out of an outlet that should have contained a light fixture, and there was gang graffiti carved into the bathroom mirror.  The room did not have a coffee pot and coffee was not available, nor breakfast of any kind.  The carpet smelled awful.  There was no ironing board or iron.  There was no cleaning service during our stay and we had to do a towel exchange every day which was fine with us because we didn't want the help in our room anyway.  There was no "do not disturb" door hang but we didn't need it!  The maids do not speak English so what you take to exchange is what you get.  Good luck trying to get a new trash liner in English.  If you stay here, have an interpreter.  I will post pics in a few minutesMore</t>
   </si>
   <si>
+    <t>Gen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r125377102-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1860,6 +2208,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>erikitaentn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r7191366-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1873,6 +2224,9 @@
   </si>
   <si>
     <t>I work with a non-profit organization that send college aged volunteers across the country.  They work in public elementary schools presenting a musical assembly that is centered around character building and drug and alcohol PREVENTION.  So the fact that there was a drug bust from someone staying at the Guest House was not really funny.  Oh and not to mention there was a free porn station on all of the T.V's.  Sure it looks nice on the outside, but looks are deceiving.  Do NOT stay at this place if you have kids or want  adecent and clean motel.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d78448-r5233750-Travelodge_by_Wyndham_Whittier-Whittier_California.html</t>
@@ -2410,28 +2764,32 @@
       <c r="A2" t="n">
         <v>23774</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -2439,10 +2797,10 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2463,36 +2821,37 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>23774</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2500,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2524,51 +2883,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>23774</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2592,35 +2952,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>23774</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2628,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2652,49 +3016,50 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>23774</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2718,50 +3083,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>23774</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>70</v>
-      </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2785,35 +3154,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>23774</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2821,10 +3194,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2845,51 +3218,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>23774</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2913,50 +3287,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>23774</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2980,35 +3358,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>23774</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3016,10 +3398,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3040,51 +3422,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>23774</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3108,48 +3491,52 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>23774</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -3173,35 +3560,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>23774</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3209,10 +3600,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3233,51 +3624,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>23774</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3301,50 +3693,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>23774</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3358,35 +3754,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>23774</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3394,10 +3794,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3418,51 +3818,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>23774</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3486,50 +3887,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>23774</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
         <v>76</v>
-      </c>
-      <c r="L19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3553,50 +3958,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>23774</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3620,50 +4029,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>23774</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3687,50 +4100,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>23774</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3754,50 +4171,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>23774</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3821,50 +4242,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23774</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3878,50 +4303,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23774</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3945,50 +4374,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>23774</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4002,50 +4435,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>23774</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4063,35 +4500,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>23774</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4099,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4123,51 +4564,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>23774</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4181,50 +4623,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>23774</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -4248,35 +4694,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>23774</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -4284,10 +4734,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4308,51 +4758,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>23774</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="O32" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4366,35 +4817,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>23774</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4402,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4426,36 +4881,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>23774</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4463,10 +4919,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="O34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4487,51 +4943,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>23774</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>246</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4545,50 +5002,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>23774</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>252</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4612,35 +5073,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>23774</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4648,10 +5113,10 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="O37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4672,51 +5137,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>23774</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4730,50 +5196,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>23774</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
         <v>237</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="s">
-        <v>232</v>
-      </c>
-      <c r="O39" t="s">
-        <v>207</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4797,35 +5267,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>23774</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4833,10 +5307,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4857,49 +5331,50 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>23774</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4923,50 +5398,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>23774</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="J42" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4990,35 +5469,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>23774</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>290</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -5026,10 +5509,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="O43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5050,51 +5533,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>23774</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>294</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="J44" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="K44" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="L44" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5118,35 +5602,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>23774</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>301</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="J45" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5154,10 +5642,10 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="O45" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5178,36 +5666,37 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>23774</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>305</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="J46" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5215,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5239,51 +5728,52 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>23774</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>309</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="J47" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="L47" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="O47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5307,50 +5797,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>23774</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="J48" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="K48" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5374,35 +5868,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>23774</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>322</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="J49" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5410,10 +5908,10 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -5434,51 +5932,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>23774</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="J50" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="O50" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5492,50 +5991,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>23774</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>332</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="J51" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="K51" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="L51" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5559,50 +6062,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>23774</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>339</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="J52" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="K52" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5626,35 +6133,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>23774</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="J53" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5662,10 +6173,10 @@
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="O53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5686,36 +6197,37 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>23774</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="J54" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5723,10 +6235,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5747,36 +6259,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>23774</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>353</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="J55" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5784,10 +6297,10 @@
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5808,51 +6321,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>23774</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>358</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="J56" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="K56" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="L56" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="O56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5876,50 +6390,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>23774</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>365</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="J57" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="K57" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5943,50 +6461,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>23774</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>371</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="J58" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="K58" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="L58" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="O58" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6002,50 +6524,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>23774</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>378</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="J59" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="K59" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="L59" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="O59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6069,35 +6595,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>23774</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>385</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="J60" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6105,10 +6635,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="O60" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6129,51 +6659,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>23774</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>389</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="J61" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="K61" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="O61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6193,41 +6724,45 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>23774</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>395</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="J62" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="K62" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
@@ -6244,56 +6779,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="X62" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="Y62" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>23774</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>404</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="J63" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="K63" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="O63" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6317,50 +6856,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>23774</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>412</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="J64" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="K64" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="L64" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6384,35 +6927,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>23774</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>417</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6420,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="O65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6444,49 +6991,50 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>23774</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>421</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="J66" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6510,50 +7058,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>23774</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>426</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="J67" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="K67" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="O67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6577,50 +7129,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>23774</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>432</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="J68" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="K68" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="L68" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6634,50 +7190,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>23774</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>439</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="J69" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="K69" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="L69" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6701,50 +7261,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>23774</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>445</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="J70" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="K70" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6768,35 +7332,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>23774</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>452</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="J71" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6804,10 +7372,10 @@
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="O71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6828,51 +7396,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>23774</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>456</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="J72" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="K72" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -6896,50 +7465,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>23774</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>463</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="J73" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
       <c r="K73" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="L73" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6963,50 +7536,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>23774</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>469</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="J74" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="K74" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="L74" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>403</v>
+        <v>475</v>
       </c>
       <c r="O74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7030,41 +7607,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>23774</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>476</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="J75" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="K75" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -7083,35 +7664,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>23774</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>482</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="J76" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7119,10 +7704,10 @@
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="O76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7141,51 +7726,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>23774</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>487</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
       <c r="J77" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
       <c r="K77" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="O77" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7209,35 +7795,39 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>23774</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>494</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="J78" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7245,10 +7835,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="O78" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7269,42 +7859,43 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>23774</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>498</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>423</v>
+        <v>500</v>
       </c>
       <c r="J79" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="K79" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="L79" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
@@ -7333,50 +7924,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>23774</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>504</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="J80" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="K80" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="L80" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="O80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7396,35 +7991,39 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>23774</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>511</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="J81" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7432,10 +8031,10 @@
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="O81" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7456,51 +8055,52 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>23774</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>515</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="J82" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="K82" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="L82" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="O82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7524,35 +8124,39 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>23774</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>522</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="J83" t="s">
-        <v>444</v>
+        <v>525</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7560,10 +8164,10 @@
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="O83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -7584,51 +8188,52 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>23774</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>526</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="J84" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="K84" t="s">
-        <v>448</v>
+        <v>530</v>
       </c>
       <c r="L84" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="O84" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7648,50 +8253,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>23774</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>533</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="J85" t="s">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="K85" t="s">
-        <v>454</v>
+        <v>537</v>
       </c>
       <c r="L85" t="s">
-        <v>455</v>
+        <v>538</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="O85" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7711,41 +8320,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>455</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>23774</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>539</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>456</v>
+        <v>540</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="J86" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="K86" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="L86" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -7774,35 +8387,39 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>23774</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>545</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>462</v>
+        <v>547</v>
       </c>
       <c r="J87" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7810,10 +8427,10 @@
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7834,51 +8451,52 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>23774</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>550</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="J88" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="K88" t="s">
-        <v>467</v>
+        <v>553</v>
       </c>
       <c r="L88" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="O88" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7902,50 +8520,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>23774</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>555</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>469</v>
+        <v>556</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>470</v>
+        <v>557</v>
       </c>
       <c r="J89" t="s">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="K89" t="s">
-        <v>472</v>
+        <v>559</v>
       </c>
       <c r="L89" t="s">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="O89" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -7969,50 +8591,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>473</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>23774</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>561</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>474</v>
+        <v>562</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="J90" t="s">
-        <v>476</v>
+        <v>564</v>
       </c>
       <c r="K90" t="s">
-        <v>477</v>
+        <v>565</v>
       </c>
       <c r="L90" t="s">
-        <v>478</v>
+        <v>566</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="O90" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8036,35 +8662,39 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>478</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>23774</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>567</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>480</v>
+        <v>569</v>
       </c>
       <c r="J91" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8072,10 +8702,10 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="O91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -8096,42 +8726,43 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>23774</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>571</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>482</v>
+        <v>572</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>483</v>
+        <v>573</v>
       </c>
       <c r="J92" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="K92" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
       <c r="L92" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8160,50 +8791,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>23774</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>577</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="J93" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="K93" t="s">
-        <v>489</v>
+        <v>580</v>
       </c>
       <c r="L93" t="s">
-        <v>490</v>
+        <v>581</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="O93" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8217,35 +8852,39 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>490</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>23774</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>583</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="J94" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8253,10 +8892,10 @@
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="O94" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8277,42 +8916,43 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>23774</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>587</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>495</v>
+        <v>588</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>496</v>
+        <v>589</v>
       </c>
       <c r="J95" t="s">
-        <v>497</v>
+        <v>590</v>
       </c>
       <c r="K95" t="s">
-        <v>498</v>
+        <v>591</v>
       </c>
       <c r="L95" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
@@ -8341,50 +8981,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>23774</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>593</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="J96" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="K96" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="L96" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="O96" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8408,50 +9052,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>23774</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>600</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>506</v>
+        <v>601</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="J97" t="s">
-        <v>508</v>
+        <v>603</v>
       </c>
       <c r="K97" t="s">
-        <v>509</v>
+        <v>604</v>
       </c>
       <c r="L97" t="s">
-        <v>510</v>
+        <v>605</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="O97" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8475,50 +9123,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>510</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>23774</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>607</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="J98" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="K98" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="L98" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="O98" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8542,50 +9194,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>517</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>23774</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>614</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>518</v>
+        <v>615</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="J99" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="K99" t="s">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="L99" t="s">
-        <v>522</v>
+        <v>619</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="O99" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -8609,35 +9265,39 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>522</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>23774</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>620</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>523</v>
+        <v>621</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="J100" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -8645,10 +9305,10 @@
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8669,42 +9329,43 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>23774</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>624</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>526</v>
+        <v>625</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>527</v>
+        <v>626</v>
       </c>
       <c r="J101" t="s">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="K101" t="s">
-        <v>529</v>
+        <v>628</v>
       </c>
       <c r="L101" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
@@ -8733,35 +9394,39 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>23774</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>630</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>531</v>
+        <v>631</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>532</v>
+        <v>632</v>
       </c>
       <c r="J102" t="s">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -8769,10 +9434,10 @@
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="O102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -8793,51 +9458,52 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>23774</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>634</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>534</v>
+        <v>635</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>535</v>
+        <v>636</v>
       </c>
       <c r="J103" t="s">
-        <v>536</v>
+        <v>637</v>
       </c>
       <c r="K103" t="s">
         <v>10</v>
       </c>
       <c r="L103" t="s">
-        <v>537</v>
+        <v>638</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="O103" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -8861,50 +9527,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>537</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>23774</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>639</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>539</v>
+        <v>641</v>
       </c>
       <c r="J104" t="s">
-        <v>540</v>
+        <v>642</v>
       </c>
       <c r="K104" t="s">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="L104" t="s">
-        <v>542</v>
+        <v>644</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>543</v>
+        <v>645</v>
       </c>
       <c r="O104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -8928,35 +9598,39 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>542</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>23774</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>646</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>544</v>
+        <v>647</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>545</v>
+        <v>648</v>
       </c>
       <c r="J105" t="s">
-        <v>546</v>
+        <v>649</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -8964,10 +9638,10 @@
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="O105" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -8988,36 +9662,37 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
-      <c r="Y105" t="s"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>23774</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>651</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>548</v>
+        <v>652</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="J106" t="s">
-        <v>550</v>
+        <v>654</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -9025,10 +9700,10 @@
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>551</v>
+        <v>655</v>
       </c>
       <c r="O106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -9049,36 +9724,37 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>23774</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>656</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>552</v>
+        <v>657</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="J107" t="s">
-        <v>554</v>
+        <v>659</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s"/>
@@ -9086,10 +9762,10 @@
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="O107" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9110,51 +9786,52 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="s"/>
-      <c r="X107" t="s"/>
-      <c r="Y107" t="s"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>23774</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>661</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="J108" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="K108" t="s">
-        <v>559</v>
+        <v>665</v>
       </c>
       <c r="L108" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="O108" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9178,35 +9855,39 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>23774</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>667</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>561</v>
+        <v>668</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>562</v>
+        <v>669</v>
       </c>
       <c r="J109" t="s">
-        <v>563</v>
+        <v>670</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s"/>
@@ -9214,10 +9895,10 @@
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="O109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9238,49 +9919,50 @@
       <c r="V109" t="n">
         <v>0</v>
       </c>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
-      <c r="Y109" t="s"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>23774</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>672</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>565</v>
+        <v>673</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="J110" t="s">
-        <v>567</v>
+        <v>675</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="O110" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9304,35 +9986,39 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>23774</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>677</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>569</v>
+        <v>678</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>570</v>
+        <v>679</v>
       </c>
       <c r="J111" t="s">
-        <v>571</v>
+        <v>680</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -9340,10 +10026,10 @@
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="O111" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9364,36 +10050,37 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>23774</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>681</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>572</v>
+        <v>682</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>573</v>
+        <v>683</v>
       </c>
       <c r="J112" t="s">
-        <v>574</v>
+        <v>684</v>
       </c>
       <c r="K112" t="s"/>
       <c r="L112" t="s"/>
@@ -9401,10 +10088,10 @@
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>575</v>
+        <v>685</v>
       </c>
       <c r="O112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -9425,36 +10112,37 @@
       <c r="V112" t="n">
         <v>0</v>
       </c>
-      <c r="W112" t="s"/>
-      <c r="X112" t="s"/>
-      <c r="Y112" t="s"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>23774</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>686</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>576</v>
+        <v>687</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>577</v>
+        <v>688</v>
       </c>
       <c r="J113" t="s">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="K113" t="s"/>
       <c r="L113" t="s"/>
@@ -9462,10 +10150,10 @@
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>579</v>
+        <v>690</v>
       </c>
       <c r="O113" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -9486,51 +10174,52 @@
       <c r="V113" t="n">
         <v>0</v>
       </c>
-      <c r="W113" t="s"/>
-      <c r="X113" t="s"/>
-      <c r="Y113" t="s"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>23774</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>691</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>581</v>
+        <v>693</v>
       </c>
       <c r="J114" t="s">
-        <v>582</v>
+        <v>694</v>
       </c>
       <c r="K114" t="s">
-        <v>583</v>
+        <v>695</v>
       </c>
       <c r="L114" t="s">
-        <v>584</v>
+        <v>696</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>585</v>
+        <v>697</v>
       </c>
       <c r="O114" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -9554,50 +10243,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>584</v>
+        <v>696</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>23774</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>698</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>587</v>
+        <v>700</v>
       </c>
       <c r="J115" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="K115" t="s">
-        <v>589</v>
+        <v>702</v>
       </c>
       <c r="L115" t="s">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
       <c r="O115" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -9619,56 +10312,60 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="X115" t="s">
-        <v>593</v>
+        <v>706</v>
       </c>
       <c r="Y115" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>23774</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>708</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>596</v>
+        <v>710</v>
       </c>
       <c r="J116" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="K116" t="s">
-        <v>598</v>
+        <v>712</v>
       </c>
       <c r="L116" t="s">
-        <v>599</v>
+        <v>713</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="O116" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -9692,50 +10389,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>599</v>
+        <v>713</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>23774</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>715</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>601</v>
+        <v>716</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>602</v>
+        <v>717</v>
       </c>
       <c r="J117" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="K117" t="s">
-        <v>603</v>
+        <v>718</v>
       </c>
       <c r="L117" t="s">
-        <v>604</v>
+        <v>719</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="O117" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P117" t="s"/>
       <c r="Q117" t="s"/>
@@ -9749,50 +10450,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>605</v>
+        <v>720</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>23774</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>721</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>607</v>
+        <v>723</v>
       </c>
       <c r="J118" t="s">
-        <v>608</v>
+        <v>724</v>
       </c>
       <c r="K118" t="s">
-        <v>609</v>
+        <v>725</v>
       </c>
       <c r="L118" t="s">
-        <v>610</v>
+        <v>726</v>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>611</v>
+        <v>727</v>
       </c>
       <c r="O118" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -9816,41 +10521,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>610</v>
+        <v>726</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>23774</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>728</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>612</v>
+        <v>729</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>613</v>
+        <v>730</v>
       </c>
       <c r="J119" t="s">
-        <v>614</v>
+        <v>731</v>
       </c>
       <c r="K119" t="s">
-        <v>615</v>
+        <v>732</v>
       </c>
       <c r="L119" t="s">
-        <v>616</v>
+        <v>733</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
@@ -9879,41 +10588,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>616</v>
+        <v>733</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>23774</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>734</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>617</v>
+        <v>735</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>618</v>
+        <v>736</v>
       </c>
       <c r="J120" t="s">
-        <v>619</v>
+        <v>737</v>
       </c>
       <c r="K120" t="s">
-        <v>620</v>
+        <v>738</v>
       </c>
       <c r="L120" t="s">
-        <v>621</v>
+        <v>739</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
@@ -9940,41 +10653,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>622</v>
+        <v>740</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>23774</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>734</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>623</v>
+        <v>741</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>624</v>
+        <v>742</v>
       </c>
       <c r="J121" t="s">
-        <v>625</v>
+        <v>743</v>
       </c>
       <c r="K121" t="s">
-        <v>626</v>
+        <v>744</v>
       </c>
       <c r="L121" t="s">
-        <v>627</v>
+        <v>745</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -10001,7 +10718,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>627</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
